--- a/src/app/preciso-explorer/templates/preciso-medidor-pressao.xlsx
+++ b/src/app/preciso-explorer/templates/preciso-medidor-pressao.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SGQ2\Registros\Certificados\Certificados Padrão\RQ CCA Calibração\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\first\Documents\Projetos de Desenvolvimento\preciso-app\src\app\preciso-explorer\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83B60A0-1D69-46F8-B8C2-574E0030EDB1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="19440" windowHeight="7380" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="19440" windowHeight="7380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RQCCA34 Manometro" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'RQCCA34 Manometro'!$A$1:$CF$79</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -2727,7 +2728,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -4711,6 +4712,238 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4721,9 +4954,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -4754,238 +4984,9 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5003,52 +5004,52 @@
     </xf>
   </cellXfs>
   <cellStyles count="46">
-    <cellStyle name="20% - Ênfase1 2" xfId="3"/>
-    <cellStyle name="20% - Ênfase2 2" xfId="4"/>
-    <cellStyle name="20% - Ênfase3 2" xfId="5"/>
-    <cellStyle name="20% - Ênfase4 2" xfId="6"/>
-    <cellStyle name="20% - Ênfase5 2" xfId="7"/>
-    <cellStyle name="20% - Ênfase6 2" xfId="8"/>
-    <cellStyle name="40% - Ênfase1 2" xfId="9"/>
-    <cellStyle name="40% - Ênfase2 2" xfId="10"/>
-    <cellStyle name="40% - Ênfase3 2" xfId="11"/>
-    <cellStyle name="40% - Ênfase4 2" xfId="12"/>
-    <cellStyle name="40% - Ênfase5 2" xfId="13"/>
-    <cellStyle name="40% - Ênfase6 2" xfId="14"/>
-    <cellStyle name="60% - Ênfase1 2" xfId="15"/>
-    <cellStyle name="60% - Ênfase2 2" xfId="16"/>
-    <cellStyle name="60% - Ênfase3 2" xfId="17"/>
-    <cellStyle name="60% - Ênfase4 2" xfId="18"/>
-    <cellStyle name="60% - Ênfase5 2" xfId="19"/>
-    <cellStyle name="60% - Ênfase6 2" xfId="20"/>
-    <cellStyle name="Bom 2" xfId="21"/>
-    <cellStyle name="Cálculo 2" xfId="22"/>
-    <cellStyle name="Célula de Verificação 2" xfId="23"/>
-    <cellStyle name="Célula Vinculada 2" xfId="24"/>
-    <cellStyle name="Ênfase1 2" xfId="25"/>
-    <cellStyle name="Ênfase2 2" xfId="26"/>
-    <cellStyle name="Ênfase3 2" xfId="27"/>
-    <cellStyle name="Ênfase4 2" xfId="28"/>
-    <cellStyle name="Ênfase5 2" xfId="29"/>
-    <cellStyle name="Ênfase6 2" xfId="30"/>
-    <cellStyle name="Entrada 2" xfId="31"/>
-    <cellStyle name="Incorreto 2" xfId="32"/>
-    <cellStyle name="Neutra 2" xfId="33"/>
+    <cellStyle name="20% - Ênfase1 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - Ênfase2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Ênfase3 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Ênfase4 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Ênfase5 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Ênfase6 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - Ênfase1 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - Ênfase2 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - Ênfase3 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - Ênfase4 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - Ênfase5 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - Ênfase6 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - Ênfase1 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - Ênfase2 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - Ênfase3 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - Ênfase4 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - Ênfase5 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - Ênfase6 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Bom 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Cálculo 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Célula de Verificação 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Célula Vinculada 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Ênfase1 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Ênfase2 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Ênfase3 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Ênfase4 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Ênfase5 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Ênfase6 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Entrada 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Incorreto 2" xfId="32" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Neutra 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="34"/>
-    <cellStyle name="Normal 3" xfId="2"/>
-    <cellStyle name="Nota 2" xfId="35"/>
-    <cellStyle name="Nota 3" xfId="45"/>
-    <cellStyle name="Saída 2" xfId="36"/>
-    <cellStyle name="Texto de Aviso 2" xfId="37"/>
-    <cellStyle name="Texto Explicativo 2" xfId="38"/>
-    <cellStyle name="Título 1 2" xfId="40"/>
-    <cellStyle name="Título 2 2" xfId="41"/>
-    <cellStyle name="Título 3 2" xfId="42"/>
-    <cellStyle name="Título 4 2" xfId="43"/>
-    <cellStyle name="Título 5" xfId="39"/>
-    <cellStyle name="Total 2" xfId="44"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Normal 2 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Nota 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Nota 3" xfId="45" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Saída 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Texto de Aviso 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Texto Explicativo 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Título 1 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Título 2 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Título 3 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Título 4 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Título 5" xfId="39" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Total 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -5132,7 +5133,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5170,7 +5171,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -5205,6 +5206,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -5240,9 +5258,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5415,10 +5450,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CQ80"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="AO2" sqref="AO2"/>
     </sheetView>
   </sheetViews>
@@ -5448,68 +5483,68 @@
       <c r="L1" s="1"/>
       <c r="N1" s="257"/>
       <c r="O1" s="257"/>
-      <c r="P1" s="274" t="s">
+      <c r="P1" s="348" t="s">
         <v>464</v>
       </c>
-      <c r="Q1" s="274"/>
-      <c r="R1" s="274"/>
-      <c r="S1" s="274"/>
-      <c r="T1" s="274"/>
-      <c r="U1" s="274"/>
-      <c r="V1" s="274"/>
-      <c r="W1" s="274"/>
-      <c r="X1" s="274"/>
-      <c r="Y1" s="274"/>
-      <c r="Z1" s="274"/>
-      <c r="AA1" s="274"/>
-      <c r="AB1" s="274"/>
-      <c r="AC1" s="274"/>
-      <c r="AD1" s="274"/>
-      <c r="AE1" s="274"/>
-      <c r="AF1" s="274"/>
-      <c r="AG1" s="274"/>
-      <c r="AH1" s="274"/>
-      <c r="AI1" s="274"/>
-      <c r="AJ1" s="274"/>
-      <c r="AK1" s="274"/>
+      <c r="Q1" s="348"/>
+      <c r="R1" s="348"/>
+      <c r="S1" s="348"/>
+      <c r="T1" s="348"/>
+      <c r="U1" s="348"/>
+      <c r="V1" s="348"/>
+      <c r="W1" s="348"/>
+      <c r="X1" s="348"/>
+      <c r="Y1" s="348"/>
+      <c r="Z1" s="348"/>
+      <c r="AA1" s="348"/>
+      <c r="AB1" s="348"/>
+      <c r="AC1" s="348"/>
+      <c r="AD1" s="348"/>
+      <c r="AE1" s="348"/>
+      <c r="AF1" s="348"/>
+      <c r="AG1" s="348"/>
+      <c r="AH1" s="348"/>
+      <c r="AI1" s="348"/>
+      <c r="AJ1" s="348"/>
+      <c r="AK1" s="348"/>
       <c r="AM1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="AN1" s="269" t="str">
+      <c r="AN1" s="344" t="str">
         <f>CONCATENATE(AV3,AW3,AX3,AV4)</f>
         <v/>
       </c>
-      <c r="AO1" s="269"/>
-      <c r="AP1" s="269"/>
-      <c r="AQ1" s="269"/>
+      <c r="AO1" s="344"/>
+      <c r="AP1" s="344"/>
+      <c r="AQ1" s="344"/>
       <c r="AR1" s="4"/>
       <c r="AS1" s="5"/>
-      <c r="AT1" s="265" t="s">
+      <c r="AT1" s="340" t="s">
         <v>0</v>
       </c>
-      <c r="AU1" s="266"/>
-      <c r="AV1" s="266"/>
-      <c r="AW1" s="266"/>
-      <c r="AX1" s="266"/>
-      <c r="AY1" s="266"/>
-      <c r="AZ1" s="267"/>
+      <c r="AU1" s="341"/>
+      <c r="AV1" s="341"/>
+      <c r="AW1" s="341"/>
+      <c r="AX1" s="341"/>
+      <c r="AY1" s="341"/>
+      <c r="AZ1" s="342"/>
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
       <c r="BC1" s="1"/>
       <c r="BD1" s="1"/>
       <c r="BE1" s="1"/>
-      <c r="BF1" s="331" t="s">
+      <c r="BF1" s="260" t="s">
         <v>384</v>
       </c>
-      <c r="BG1" s="332"/>
-      <c r="BH1" s="332"/>
-      <c r="BI1" s="332"/>
-      <c r="BJ1" s="332"/>
-      <c r="BK1" s="332"/>
-      <c r="BL1" s="332"/>
-      <c r="BM1" s="332"/>
-      <c r="BN1" s="332"/>
-      <c r="BO1" s="333"/>
+      <c r="BG1" s="261"/>
+      <c r="BH1" s="261"/>
+      <c r="BI1" s="261"/>
+      <c r="BJ1" s="261"/>
+      <c r="BK1" s="261"/>
+      <c r="BL1" s="261"/>
+      <c r="BM1" s="261"/>
+      <c r="BN1" s="261"/>
+      <c r="BO1" s="262"/>
       <c r="BP1" s="183"/>
       <c r="BQ1" s="217" t="s">
         <v>393</v>
@@ -5540,13 +5575,13 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="268"/>
-      <c r="N2" s="268"/>
-      <c r="O2" s="268"/>
-      <c r="P2" s="268"/>
-      <c r="Q2" s="268"/>
-      <c r="R2" s="268"/>
-      <c r="S2" s="268"/>
+      <c r="M2" s="343"/>
+      <c r="N2" s="343"/>
+      <c r="O2" s="343"/>
+      <c r="P2" s="343"/>
+      <c r="Q2" s="343"/>
+      <c r="R2" s="343"/>
+      <c r="S2" s="343"/>
       <c r="T2" s="7"/>
       <c r="U2" s="8"/>
       <c r="V2" s="8"/>
@@ -5555,21 +5590,21 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
-      <c r="AB2" s="264" t="str">
+      <c r="AB2" s="339" t="str">
         <f>CONCATENATE('Multi Seleção'!A2,'Multi Seleção'!A3," ",'Multi Seleção'!A4)</f>
         <v>RQ CCA34 Pressão</v>
       </c>
-      <c r="AC2" s="264"/>
-      <c r="AD2" s="264"/>
-      <c r="AE2" s="264"/>
-      <c r="AF2" s="264"/>
-      <c r="AG2" s="264"/>
-      <c r="AH2" s="264"/>
-      <c r="AI2" s="264"/>
-      <c r="AJ2" s="264"/>
-      <c r="AK2" s="264"/>
-      <c r="AL2" s="264"/>
-      <c r="AM2" s="264"/>
+      <c r="AC2" s="339"/>
+      <c r="AD2" s="339"/>
+      <c r="AE2" s="339"/>
+      <c r="AF2" s="339"/>
+      <c r="AG2" s="339"/>
+      <c r="AH2" s="339"/>
+      <c r="AI2" s="339"/>
+      <c r="AJ2" s="339"/>
+      <c r="AK2" s="339"/>
+      <c r="AL2" s="339"/>
+      <c r="AM2" s="339"/>
       <c r="AN2" s="3" t="str">
         <f>'Multi Seleção'!A5</f>
         <v>R101 18 08 13F</v>
@@ -5674,10 +5709,10 @@
       <c r="AA3" s="1"/>
       <c r="AR3" s="1"/>
       <c r="AS3" s="2"/>
-      <c r="AT3" s="270" t="s">
+      <c r="AT3" s="345" t="s">
         <v>5</v>
       </c>
-      <c r="AU3" s="271"/>
+      <c r="AU3" s="346"/>
       <c r="AV3" s="233"/>
       <c r="AW3" s="233"/>
       <c r="AX3" s="234"/>
@@ -5765,12 +5800,12 @@
       <c r="AQ4" s="1"/>
       <c r="AR4" s="1"/>
       <c r="AS4" s="2"/>
-      <c r="AT4" s="259" t="s">
+      <c r="AT4" s="335" t="s">
         <v>7</v>
       </c>
-      <c r="AU4" s="260"/>
-      <c r="AV4" s="261"/>
-      <c r="AW4" s="261"/>
+      <c r="AU4" s="336"/>
+      <c r="AV4" s="337"/>
+      <c r="AW4" s="337"/>
       <c r="AX4" s="235"/>
       <c r="AY4" s="1"/>
       <c r="AZ4" s="19"/>
@@ -5874,12 +5909,12 @@
       <c r="AQ5" s="1"/>
       <c r="AR5" s="1"/>
       <c r="AS5" s="2"/>
-      <c r="AT5" s="262" t="s">
+      <c r="AT5" s="338" t="s">
         <v>9</v>
       </c>
-      <c r="AU5" s="262"/>
-      <c r="AV5" s="272"/>
-      <c r="AW5" s="272"/>
+      <c r="AU5" s="338"/>
+      <c r="AV5" s="347"/>
+      <c r="AW5" s="347"/>
       <c r="AX5" s="1"/>
       <c r="AY5" s="1"/>
       <c r="AZ5" s="1"/>
@@ -5963,12 +5998,12 @@
       <c r="AQ6" s="1"/>
       <c r="AR6" s="1"/>
       <c r="AS6" s="2"/>
-      <c r="AT6" s="263" t="s">
+      <c r="AT6" s="327" t="s">
         <v>10</v>
       </c>
-      <c r="AU6" s="263"/>
-      <c r="AV6" s="273"/>
-      <c r="AW6" s="273"/>
+      <c r="AU6" s="327"/>
+      <c r="AV6" s="334"/>
+      <c r="AW6" s="334"/>
       <c r="AX6" s="1"/>
       <c r="AY6" s="1"/>
       <c r="AZ6" s="18"/>
@@ -6072,12 +6107,12 @@
       <c r="AQ7" s="1"/>
       <c r="AR7" s="1"/>
       <c r="AS7" s="2"/>
-      <c r="AT7" s="263" t="s">
+      <c r="AT7" s="327" t="s">
         <v>12</v>
       </c>
-      <c r="AU7" s="263"/>
-      <c r="AV7" s="273"/>
-      <c r="AW7" s="273"/>
+      <c r="AU7" s="327"/>
+      <c r="AV7" s="334"/>
+      <c r="AW7" s="334"/>
       <c r="AX7" s="1"/>
       <c r="AY7" s="1"/>
       <c r="AZ7" s="18"/>
@@ -6162,12 +6197,12 @@
       <c r="AQ8" s="20"/>
       <c r="AR8" s="20"/>
       <c r="AS8" s="2"/>
-      <c r="AT8" s="263" t="s">
+      <c r="AT8" s="327" t="s">
         <v>428</v>
       </c>
-      <c r="AU8" s="263"/>
-      <c r="AV8" s="273"/>
-      <c r="AW8" s="273"/>
+      <c r="AU8" s="327"/>
+      <c r="AV8" s="334"/>
+      <c r="AW8" s="334"/>
       <c r="BA8" s="161"/>
       <c r="BB8" s="161"/>
       <c r="BC8" s="161"/>
@@ -6262,12 +6297,12 @@
       <c r="AQ9" s="1"/>
       <c r="AR9" s="1"/>
       <c r="AS9" s="2"/>
-      <c r="AT9" s="263" t="s">
+      <c r="AT9" s="327" t="s">
         <v>356</v>
       </c>
-      <c r="AU9" s="263"/>
-      <c r="AV9" s="278"/>
-      <c r="AW9" s="278"/>
+      <c r="AU9" s="327"/>
+      <c r="AV9" s="331"/>
+      <c r="AW9" s="331"/>
       <c r="AX9" s="26" t="s">
         <v>25</v>
       </c>
@@ -6327,22 +6362,22 @@
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
       <c r="V10" s="1"/>
-      <c r="W10" s="277">
+      <c r="W10" s="330">
         <f>AV12</f>
         <v>0</v>
       </c>
-      <c r="X10" s="277"/>
-      <c r="Y10" s="277"/>
-      <c r="Z10" s="277"/>
-      <c r="AA10" s="277"/>
-      <c r="AB10" s="277"/>
-      <c r="AC10" s="277"/>
-      <c r="AD10" s="277"/>
-      <c r="AE10" s="277"/>
-      <c r="AF10" s="277"/>
-      <c r="AG10" s="277"/>
-      <c r="AH10" s="277"/>
-      <c r="AI10" s="277"/>
+      <c r="X10" s="330"/>
+      <c r="Y10" s="330"/>
+      <c r="Z10" s="330"/>
+      <c r="AA10" s="330"/>
+      <c r="AB10" s="330"/>
+      <c r="AC10" s="330"/>
+      <c r="AD10" s="330"/>
+      <c r="AE10" s="330"/>
+      <c r="AF10" s="330"/>
+      <c r="AG10" s="330"/>
+      <c r="AH10" s="330"/>
+      <c r="AI10" s="330"/>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1"/>
       <c r="AL10" s="1"/>
@@ -6353,12 +6388,12 @@
       <c r="AQ10" s="1"/>
       <c r="AR10" s="1"/>
       <c r="AS10" s="2"/>
-      <c r="AT10" s="263" t="s">
+      <c r="AT10" s="327" t="s">
         <v>382</v>
       </c>
-      <c r="AU10" s="263"/>
-      <c r="AV10" s="278"/>
-      <c r="AW10" s="278"/>
+      <c r="AU10" s="327"/>
+      <c r="AV10" s="331"/>
+      <c r="AW10" s="331"/>
       <c r="AX10" s="26" t="s">
         <v>25</v>
       </c>
@@ -6410,22 +6445,22 @@
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
       <c r="V11" s="1"/>
-      <c r="W11" s="277">
+      <c r="W11" s="330">
         <f>AV13</f>
         <v>0</v>
       </c>
-      <c r="X11" s="277"/>
-      <c r="Y11" s="277"/>
-      <c r="Z11" s="277"/>
-      <c r="AA11" s="277"/>
-      <c r="AB11" s="277"/>
-      <c r="AC11" s="277"/>
-      <c r="AD11" s="277"/>
-      <c r="AE11" s="277"/>
-      <c r="AF11" s="277"/>
-      <c r="AG11" s="277"/>
-      <c r="AH11" s="277"/>
-      <c r="AI11" s="277"/>
+      <c r="X11" s="330"/>
+      <c r="Y11" s="330"/>
+      <c r="Z11" s="330"/>
+      <c r="AA11" s="330"/>
+      <c r="AB11" s="330"/>
+      <c r="AC11" s="330"/>
+      <c r="AD11" s="330"/>
+      <c r="AE11" s="330"/>
+      <c r="AF11" s="330"/>
+      <c r="AG11" s="330"/>
+      <c r="AH11" s="330"/>
+      <c r="AI11" s="330"/>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
       <c r="AL11" s="1"/>
@@ -6440,8 +6475,8 @@
         <v>14</v>
       </c>
       <c r="AU11" s="22"/>
-      <c r="AV11" s="279"/>
-      <c r="AW11" s="280"/>
+      <c r="AV11" s="332"/>
+      <c r="AW11" s="333"/>
       <c r="AX11" s="1"/>
       <c r="AY11" s="1"/>
       <c r="AZ11" s="18"/>
@@ -6509,22 +6544,22 @@
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
       <c r="V12" s="1"/>
-      <c r="W12" s="277">
+      <c r="W12" s="330">
         <f>AV14</f>
         <v>0</v>
       </c>
-      <c r="X12" s="277"/>
-      <c r="Y12" s="277"/>
-      <c r="Z12" s="277"/>
-      <c r="AA12" s="277"/>
-      <c r="AB12" s="277"/>
-      <c r="AC12" s="277"/>
-      <c r="AD12" s="277"/>
-      <c r="AE12" s="277"/>
-      <c r="AF12" s="277"/>
-      <c r="AG12" s="277"/>
-      <c r="AH12" s="277"/>
-      <c r="AI12" s="277"/>
+      <c r="X12" s="330"/>
+      <c r="Y12" s="330"/>
+      <c r="Z12" s="330"/>
+      <c r="AA12" s="330"/>
+      <c r="AB12" s="330"/>
+      <c r="AC12" s="330"/>
+      <c r="AD12" s="330"/>
+      <c r="AE12" s="330"/>
+      <c r="AF12" s="330"/>
+      <c r="AG12" s="330"/>
+      <c r="AH12" s="330"/>
+      <c r="AI12" s="330"/>
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1"/>
       <c r="AL12" s="1"/>
@@ -6535,12 +6570,12 @@
       <c r="AQ12" s="1"/>
       <c r="AR12" s="1"/>
       <c r="AS12" s="2"/>
-      <c r="AT12" s="263" t="s">
+      <c r="AT12" s="327" t="s">
         <v>15</v>
       </c>
-      <c r="AU12" s="263"/>
-      <c r="AV12" s="278"/>
-      <c r="AW12" s="278"/>
+      <c r="AU12" s="327"/>
+      <c r="AV12" s="331"/>
+      <c r="AW12" s="331"/>
       <c r="AX12" s="1"/>
       <c r="AY12" s="1"/>
       <c r="AZ12" s="1"/>
@@ -6585,21 +6620,21 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
-      <c r="W13" s="276">
+      <c r="W13" s="328">
         <f>AV15</f>
         <v>0</v>
       </c>
-      <c r="X13" s="276"/>
-      <c r="Y13" s="276"/>
-      <c r="Z13" s="276"/>
-      <c r="AA13" s="276"/>
-      <c r="AB13" s="276"/>
-      <c r="AC13" s="276"/>
-      <c r="AD13" s="276"/>
-      <c r="AE13" s="276"/>
-      <c r="AF13" s="276"/>
-      <c r="AG13" s="276"/>
-      <c r="AH13" s="276"/>
+      <c r="X13" s="328"/>
+      <c r="Y13" s="328"/>
+      <c r="Z13" s="328"/>
+      <c r="AA13" s="328"/>
+      <c r="AB13" s="328"/>
+      <c r="AC13" s="328"/>
+      <c r="AD13" s="328"/>
+      <c r="AE13" s="328"/>
+      <c r="AF13" s="328"/>
+      <c r="AG13" s="328"/>
+      <c r="AH13" s="328"/>
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
@@ -6611,12 +6646,12 @@
       <c r="AQ13" s="1"/>
       <c r="AR13" s="1"/>
       <c r="AS13" s="2"/>
-      <c r="AT13" s="263" t="s">
+      <c r="AT13" s="327" t="s">
         <v>17</v>
       </c>
-      <c r="AU13" s="263"/>
-      <c r="AV13" s="278"/>
-      <c r="AW13" s="278"/>
+      <c r="AU13" s="327"/>
+      <c r="AV13" s="331"/>
+      <c r="AW13" s="331"/>
       <c r="AX13" s="1"/>
       <c r="AY13" s="1"/>
       <c r="AZ13" s="1"/>
@@ -6705,12 +6740,12 @@
       <c r="AQ14" s="1"/>
       <c r="AR14" s="1"/>
       <c r="AS14" s="2"/>
-      <c r="AT14" s="263" t="s">
+      <c r="AT14" s="327" t="s">
         <v>19</v>
       </c>
-      <c r="AU14" s="263"/>
-      <c r="AV14" s="278"/>
-      <c r="AW14" s="278"/>
+      <c r="AU14" s="327"/>
+      <c r="AV14" s="331"/>
+      <c r="AW14" s="331"/>
       <c r="AX14" s="1"/>
       <c r="AY14" s="1"/>
       <c r="AZ14" s="1"/>
@@ -6755,20 +6790,20 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
-      <c r="W15" s="276">
+      <c r="W15" s="328">
         <f>AV16</f>
         <v>0</v>
       </c>
-      <c r="X15" s="276"/>
+      <c r="X15" s="328"/>
       <c r="Y15" s="237" t="s">
         <v>24</v>
       </c>
-      <c r="AA15" s="275">
+      <c r="AA15" s="329">
         <f>AX16</f>
         <v>0</v>
       </c>
-      <c r="AB15" s="275"/>
-      <c r="AC15" s="275"/>
+      <c r="AB15" s="329"/>
+      <c r="AC15" s="329"/>
       <c r="AD15" s="27">
         <f>AY16</f>
         <v>0</v>
@@ -6787,12 +6822,12 @@
       <c r="AQ15" s="1"/>
       <c r="AR15" s="1"/>
       <c r="AS15" s="2"/>
-      <c r="AT15" s="263" t="s">
+      <c r="AT15" s="327" t="s">
         <v>21</v>
       </c>
-      <c r="AU15" s="263"/>
-      <c r="AV15" s="278"/>
-      <c r="AW15" s="278"/>
+      <c r="AU15" s="327"/>
+      <c r="AV15" s="331"/>
+      <c r="AW15" s="331"/>
       <c r="AX15" s="1"/>
       <c r="AY15" s="1"/>
       <c r="AZ15" s="1"/>
@@ -6855,14 +6890,14 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
-      <c r="W16" s="276" t="str">
+      <c r="W16" s="328" t="str">
         <f>IF(AV17="","Não especificado",IF(AV17="-","Não especificado",CONCATENATE(AV17,"     ",AW17,"      ",AX17," ",AY17)))</f>
         <v>Não especificado</v>
       </c>
-      <c r="X16" s="276"/>
-      <c r="Y16" s="276"/>
-      <c r="Z16" s="276"/>
-      <c r="AA16" s="276"/>
+      <c r="X16" s="328"/>
+      <c r="Y16" s="328"/>
+      <c r="Z16" s="328"/>
+      <c r="AA16" s="328"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
       <c r="AD16" s="27"/>
@@ -6881,10 +6916,10 @@
       <c r="AQ16" s="1"/>
       <c r="AR16" s="1"/>
       <c r="AS16" s="2"/>
-      <c r="AT16" s="263" t="s">
+      <c r="AT16" s="327" t="s">
         <v>23</v>
       </c>
-      <c r="AU16" s="263"/>
+      <c r="AU16" s="327"/>
       <c r="AV16" s="23"/>
       <c r="AW16" s="24" t="s">
         <v>24</v>
@@ -6922,11 +6957,11 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
-      <c r="W17" s="276">
+      <c r="W17" s="328">
         <f>AV18</f>
         <v>0</v>
       </c>
-      <c r="X17" s="276"/>
+      <c r="X17" s="328"/>
       <c r="Y17" s="237">
         <f>AY16</f>
         <v>0</v>
@@ -6951,10 +6986,10 @@
       <c r="AQ17" s="1"/>
       <c r="AR17" s="1"/>
       <c r="AS17" s="2"/>
-      <c r="AT17" s="263" t="s">
+      <c r="AT17" s="327" t="s">
         <v>27</v>
       </c>
-      <c r="AU17" s="263"/>
+      <c r="AU17" s="327"/>
       <c r="AV17" s="23"/>
       <c r="AW17" s="24" t="s">
         <v>24</v>
@@ -7160,108 +7195,108 @@
       <c r="BE20" s="1"/>
     </row>
     <row r="21" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="286" t="s">
+      <c r="A21" s="313" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="287"/>
+      <c r="B21" s="314"/>
       <c r="C21" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="287">
+      <c r="D21" s="314">
         <f>AD15</f>
         <v>0</v>
       </c>
-      <c r="E21" s="287"/>
+      <c r="E21" s="314"/>
       <c r="F21" s="30" t="s">
         <v>38</v>
       </c>
       <c r="G21" s="30"/>
-      <c r="H21" s="286" t="s">
+      <c r="H21" s="313" t="s">
         <v>36</v>
       </c>
-      <c r="I21" s="287"/>
+      <c r="I21" s="314"/>
       <c r="J21" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="K21" s="287">
+      <c r="K21" s="314">
         <f>D21</f>
         <v>0</v>
       </c>
-      <c r="L21" s="287"/>
+      <c r="L21" s="314"/>
       <c r="M21" s="30" t="s">
         <v>38</v>
       </c>
       <c r="N21" s="30"/>
-      <c r="O21" s="289" t="s">
+      <c r="O21" s="317" t="s">
         <v>39</v>
       </c>
-      <c r="P21" s="290"/>
+      <c r="P21" s="318"/>
       <c r="Q21" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="R21" s="287">
+      <c r="R21" s="314">
         <f>K21</f>
         <v>0</v>
       </c>
-      <c r="S21" s="287"/>
-      <c r="T21" s="287"/>
+      <c r="S21" s="314"/>
+      <c r="T21" s="314"/>
       <c r="U21" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="V21" s="288" t="s">
+      <c r="V21" s="311" t="s">
         <v>424</v>
       </c>
-      <c r="W21" s="310"/>
-      <c r="X21" s="310"/>
-      <c r="Y21" s="310"/>
-      <c r="Z21" s="310"/>
-      <c r="AA21" s="310"/>
-      <c r="AB21" s="310"/>
-      <c r="AC21" s="286" t="s">
+      <c r="W21" s="312"/>
+      <c r="X21" s="312"/>
+      <c r="Y21" s="312"/>
+      <c r="Z21" s="312"/>
+      <c r="AA21" s="312"/>
+      <c r="AB21" s="312"/>
+      <c r="AC21" s="313" t="s">
         <v>40</v>
       </c>
-      <c r="AD21" s="287"/>
-      <c r="AE21" s="287"/>
-      <c r="AF21" s="287"/>
-      <c r="AG21" s="287"/>
-      <c r="AH21" s="287"/>
-      <c r="AI21" s="288"/>
-      <c r="AJ21" s="289" t="s">
+      <c r="AD21" s="314"/>
+      <c r="AE21" s="314"/>
+      <c r="AF21" s="314"/>
+      <c r="AG21" s="314"/>
+      <c r="AH21" s="314"/>
+      <c r="AI21" s="311"/>
+      <c r="AJ21" s="317" t="s">
         <v>41</v>
       </c>
-      <c r="AK21" s="290"/>
-      <c r="AL21" s="290"/>
-      <c r="AM21" s="290"/>
-      <c r="AN21" s="287">
+      <c r="AK21" s="318"/>
+      <c r="AL21" s="318"/>
+      <c r="AM21" s="318"/>
+      <c r="AN21" s="314">
         <f>R21</f>
         <v>0</v>
       </c>
-      <c r="AO21" s="287"/>
+      <c r="AO21" s="314"/>
       <c r="AP21" s="38" t="s">
         <v>38</v>
       </c>
       <c r="AQ21" s="14"/>
       <c r="AR21" s="15"/>
       <c r="AS21" s="36"/>
-      <c r="AT21" s="281" t="s">
+      <c r="AT21" s="319" t="s">
         <v>32</v>
       </c>
-      <c r="AU21" s="283" t="s">
+      <c r="AU21" s="321" t="s">
         <v>36</v>
       </c>
-      <c r="AV21" s="284"/>
-      <c r="AW21" s="285"/>
-      <c r="AX21" s="300" t="s">
+      <c r="AV21" s="322"/>
+      <c r="AW21" s="323"/>
+      <c r="AX21" s="301" t="s">
         <v>33</v>
       </c>
-      <c r="AY21" s="302" t="s">
+      <c r="AY21" s="325" t="s">
         <v>357</v>
       </c>
-      <c r="AZ21" s="304" t="s">
+      <c r="AZ21" s="305" t="s">
         <v>35</v>
       </c>
-      <c r="BA21" s="305"/>
-      <c r="BB21" s="306"/>
+      <c r="BA21" s="306"/>
+      <c r="BB21" s="307"/>
       <c r="BC21" s="14"/>
       <c r="BD21" s="37"/>
       <c r="BE21" s="37"/>
@@ -7332,7 +7367,7 @@
       <c r="AS22" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="AT22" s="282"/>
+      <c r="AT22" s="320"/>
       <c r="AU22" s="40">
         <v>1</v>
       </c>
@@ -7342,11 +7377,11 @@
       <c r="AW22" s="42">
         <v>3</v>
       </c>
-      <c r="AX22" s="301"/>
-      <c r="AY22" s="303"/>
-      <c r="AZ22" s="307"/>
-      <c r="BA22" s="308"/>
-      <c r="BB22" s="309"/>
+      <c r="AX22" s="302"/>
+      <c r="AY22" s="326"/>
+      <c r="AZ22" s="308"/>
+      <c r="BA22" s="309"/>
+      <c r="BB22" s="310"/>
       <c r="BC22" s="43" t="s">
         <v>43</v>
       </c>
@@ -7855,108 +7890,108 @@
       <c r="BE28" s="1"/>
     </row>
     <row r="29" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="286" t="s">
+      <c r="A29" s="313" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="287"/>
+      <c r="B29" s="314"/>
       <c r="C29" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="287">
+      <c r="D29" s="314">
         <f>D21</f>
         <v>0</v>
       </c>
-      <c r="E29" s="287"/>
+      <c r="E29" s="314"/>
       <c r="F29" s="30" t="s">
         <v>38</v>
       </c>
       <c r="G29" s="38"/>
-      <c r="H29" s="286" t="s">
+      <c r="H29" s="313" t="s">
         <v>36</v>
       </c>
-      <c r="I29" s="287"/>
+      <c r="I29" s="314"/>
       <c r="J29" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="K29" s="287">
+      <c r="K29" s="314">
         <f>D29</f>
         <v>0</v>
       </c>
-      <c r="L29" s="287"/>
+      <c r="L29" s="314"/>
       <c r="M29" s="30" t="s">
         <v>38</v>
       </c>
       <c r="N29" s="38"/>
-      <c r="O29" s="289" t="s">
+      <c r="O29" s="317" t="s">
         <v>39</v>
       </c>
-      <c r="P29" s="290"/>
+      <c r="P29" s="318"/>
       <c r="Q29" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="R29" s="315">
+      <c r="R29" s="324">
         <f>D29</f>
         <v>0</v>
       </c>
-      <c r="S29" s="315"/>
-      <c r="T29" s="315"/>
+      <c r="S29" s="324"/>
+      <c r="T29" s="324"/>
       <c r="U29" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="V29" s="288" t="s">
+      <c r="V29" s="311" t="s">
         <v>424</v>
       </c>
-      <c r="W29" s="310"/>
-      <c r="X29" s="310"/>
-      <c r="Y29" s="310"/>
-      <c r="Z29" s="310"/>
-      <c r="AA29" s="310"/>
-      <c r="AB29" s="310"/>
-      <c r="AC29" s="286" t="s">
+      <c r="W29" s="312"/>
+      <c r="X29" s="312"/>
+      <c r="Y29" s="312"/>
+      <c r="Z29" s="312"/>
+      <c r="AA29" s="312"/>
+      <c r="AB29" s="312"/>
+      <c r="AC29" s="313" t="s">
         <v>40</v>
       </c>
-      <c r="AD29" s="287"/>
-      <c r="AE29" s="287"/>
-      <c r="AF29" s="287"/>
-      <c r="AG29" s="287"/>
-      <c r="AH29" s="287"/>
-      <c r="AI29" s="288"/>
-      <c r="AJ29" s="313" t="s">
+      <c r="AD29" s="314"/>
+      <c r="AE29" s="314"/>
+      <c r="AF29" s="314"/>
+      <c r="AG29" s="314"/>
+      <c r="AH29" s="314"/>
+      <c r="AI29" s="311"/>
+      <c r="AJ29" s="315" t="s">
         <v>41</v>
       </c>
-      <c r="AK29" s="313"/>
-      <c r="AL29" s="313"/>
-      <c r="AM29" s="313"/>
-      <c r="AN29" s="314">
+      <c r="AK29" s="315"/>
+      <c r="AL29" s="315"/>
+      <c r="AM29" s="315"/>
+      <c r="AN29" s="316">
         <f>D29</f>
         <v>0</v>
       </c>
-      <c r="AO29" s="314"/>
+      <c r="AO29" s="316"/>
       <c r="AP29" s="226" t="s">
         <v>38</v>
       </c>
       <c r="AQ29" s="14"/>
       <c r="AR29" s="44"/>
       <c r="AS29" s="44"/>
-      <c r="AT29" s="281" t="s">
+      <c r="AT29" s="319" t="s">
         <v>32</v>
       </c>
-      <c r="AU29" s="283" t="s">
+      <c r="AU29" s="321" t="s">
         <v>36</v>
       </c>
-      <c r="AV29" s="284"/>
-      <c r="AW29" s="285"/>
-      <c r="AX29" s="300" t="s">
+      <c r="AV29" s="322"/>
+      <c r="AW29" s="323"/>
+      <c r="AX29" s="301" t="s">
         <v>33</v>
       </c>
-      <c r="AY29" s="311" t="s">
+      <c r="AY29" s="303" t="s">
         <v>34</v>
       </c>
-      <c r="AZ29" s="304" t="s">
+      <c r="AZ29" s="305" t="s">
         <v>35</v>
       </c>
-      <c r="BA29" s="305"/>
-      <c r="BB29" s="306"/>
+      <c r="BA29" s="306"/>
+      <c r="BB29" s="307"/>
       <c r="BC29" s="14"/>
       <c r="BD29" s="58"/>
       <c r="BE29" s="58"/>
@@ -8027,7 +8062,7 @@
       <c r="AS30" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="AT30" s="282"/>
+      <c r="AT30" s="320"/>
       <c r="AU30" s="227">
         <v>1</v>
       </c>
@@ -8037,11 +8072,11 @@
       <c r="AW30" s="229">
         <v>3</v>
       </c>
-      <c r="AX30" s="301"/>
-      <c r="AY30" s="312"/>
-      <c r="AZ30" s="307"/>
-      <c r="BA30" s="308"/>
-      <c r="BB30" s="309"/>
+      <c r="AX30" s="302"/>
+      <c r="AY30" s="304"/>
+      <c r="AZ30" s="308"/>
+      <c r="BA30" s="309"/>
+      <c r="BB30" s="310"/>
       <c r="BC30" s="43" t="s">
         <v>43</v>
       </c>
@@ -8425,31 +8460,31 @@
       <c r="BE34" s="1"/>
     </row>
     <row r="35" spans="1:68" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="316" t="s">
+      <c r="A35" s="300" t="s">
         <v>425</v>
       </c>
-      <c r="B35" s="316"/>
-      <c r="C35" s="316"/>
-      <c r="D35" s="316"/>
-      <c r="E35" s="316"/>
-      <c r="F35" s="316"/>
-      <c r="G35" s="316"/>
-      <c r="H35" s="316"/>
-      <c r="I35" s="316"/>
-      <c r="J35" s="316"/>
+      <c r="B35" s="300"/>
+      <c r="C35" s="300"/>
+      <c r="D35" s="300"/>
+      <c r="E35" s="300"/>
+      <c r="F35" s="300"/>
+      <c r="G35" s="300"/>
+      <c r="H35" s="300"/>
+      <c r="I35" s="300"/>
+      <c r="J35" s="300"/>
       <c r="K35" s="44"/>
-      <c r="L35" s="317" t="e">
+      <c r="L35" s="286" t="e">
         <f>MAX(AX23:AX27,AX31:AX35)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M35" s="317"/>
-      <c r="N35" s="317"/>
-      <c r="O35" s="318">
+      <c r="M35" s="286"/>
+      <c r="N35" s="286"/>
+      <c r="O35" s="272">
         <f>R29</f>
         <v>0</v>
       </c>
-      <c r="P35" s="318"/>
-      <c r="Q35" s="318"/>
+      <c r="P35" s="272"/>
+      <c r="Q35" s="272"/>
       <c r="R35" s="231"/>
       <c r="S35" s="231"/>
       <c r="T35" s="231"/>
@@ -8522,18 +8557,18 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
-      <c r="L36" s="317" t="e">
+      <c r="L36" s="286" t="e">
         <f>MAX(AY23:AY27,AY31:AY35)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M36" s="317"/>
-      <c r="N36" s="317"/>
-      <c r="O36" s="318">
+      <c r="M36" s="286"/>
+      <c r="N36" s="286"/>
+      <c r="O36" s="272">
         <f>AD15</f>
         <v>0</v>
       </c>
-      <c r="P36" s="318"/>
-      <c r="Q36" s="318"/>
+      <c r="P36" s="272"/>
+      <c r="Q36" s="272"/>
       <c r="U36" s="1"/>
       <c r="V36" s="44"/>
       <c r="W36" s="44"/>
@@ -8633,50 +8668,50 @@
       <c r="BE37" s="1"/>
     </row>
     <row r="38" spans="1:68" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="323" t="s">
+      <c r="A38" s="276" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="323"/>
-      <c r="C38" s="323"/>
-      <c r="D38" s="323"/>
-      <c r="E38" s="323"/>
-      <c r="F38" s="323"/>
-      <c r="G38" s="323"/>
-      <c r="H38" s="323"/>
-      <c r="I38" s="323"/>
-      <c r="J38" s="323"/>
-      <c r="K38" s="323"/>
-      <c r="L38" s="323"/>
-      <c r="M38" s="323"/>
-      <c r="N38" s="323"/>
-      <c r="O38" s="323"/>
-      <c r="P38" s="323"/>
-      <c r="Q38" s="323"/>
-      <c r="R38" s="323"/>
-      <c r="S38" s="323"/>
-      <c r="T38" s="323"/>
-      <c r="U38" s="323"/>
-      <c r="V38" s="323"/>
-      <c r="W38" s="323"/>
-      <c r="X38" s="323"/>
-      <c r="Y38" s="323"/>
-      <c r="Z38" s="323"/>
-      <c r="AA38" s="323"/>
-      <c r="AB38" s="323"/>
-      <c r="AC38" s="323"/>
-      <c r="AD38" s="323"/>
-      <c r="AE38" s="323"/>
-      <c r="AF38" s="323"/>
-      <c r="AG38" s="323"/>
-      <c r="AH38" s="323"/>
-      <c r="AI38" s="323"/>
-      <c r="AJ38" s="323"/>
-      <c r="AK38" s="323"/>
-      <c r="AL38" s="323"/>
-      <c r="AM38" s="323"/>
-      <c r="AN38" s="323"/>
-      <c r="AO38" s="323"/>
-      <c r="AP38" s="323"/>
+      <c r="B38" s="276"/>
+      <c r="C38" s="276"/>
+      <c r="D38" s="276"/>
+      <c r="E38" s="276"/>
+      <c r="F38" s="276"/>
+      <c r="G38" s="276"/>
+      <c r="H38" s="276"/>
+      <c r="I38" s="276"/>
+      <c r="J38" s="276"/>
+      <c r="K38" s="276"/>
+      <c r="L38" s="276"/>
+      <c r="M38" s="276"/>
+      <c r="N38" s="276"/>
+      <c r="O38" s="276"/>
+      <c r="P38" s="276"/>
+      <c r="Q38" s="276"/>
+      <c r="R38" s="276"/>
+      <c r="S38" s="276"/>
+      <c r="T38" s="276"/>
+      <c r="U38" s="276"/>
+      <c r="V38" s="276"/>
+      <c r="W38" s="276"/>
+      <c r="X38" s="276"/>
+      <c r="Y38" s="276"/>
+      <c r="Z38" s="276"/>
+      <c r="AA38" s="276"/>
+      <c r="AB38" s="276"/>
+      <c r="AC38" s="276"/>
+      <c r="AD38" s="276"/>
+      <c r="AE38" s="276"/>
+      <c r="AF38" s="276"/>
+      <c r="AG38" s="276"/>
+      <c r="AH38" s="276"/>
+      <c r="AI38" s="276"/>
+      <c r="AJ38" s="276"/>
+      <c r="AK38" s="276"/>
+      <c r="AL38" s="276"/>
+      <c r="AM38" s="276"/>
+      <c r="AN38" s="276"/>
+      <c r="AO38" s="276"/>
+      <c r="AP38" s="276"/>
       <c r="AQ38" s="9"/>
       <c r="AR38" s="44"/>
       <c r="AS38" s="1"/>
@@ -8748,11 +8783,11 @@
         <v>46</v>
       </c>
       <c r="AU39" s="61"/>
-      <c r="AV39" s="326"/>
-      <c r="AW39" s="327"/>
-      <c r="AX39" s="327"/>
-      <c r="AY39" s="327"/>
-      <c r="AZ39" s="328"/>
+      <c r="AV39" s="287"/>
+      <c r="AW39" s="288"/>
+      <c r="AX39" s="288"/>
+      <c r="AY39" s="288"/>
+      <c r="AZ39" s="289"/>
       <c r="BA39" s="26" t="s">
         <v>25</v>
       </c>
@@ -8790,11 +8825,11 @@
       <c r="S40" s="64"/>
       <c r="T40" s="64"/>
       <c r="U40" s="161"/>
-      <c r="V40" s="318" t="str">
+      <c r="V40" s="272" t="str">
         <f>CONCATENATE(AV41," ",AX41)</f>
         <v xml:space="preserve"> %</v>
       </c>
-      <c r="W40" s="318"/>
+      <c r="W40" s="272"/>
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
@@ -8821,8 +8856,8 @@
         <v>48</v>
       </c>
       <c r="AU40" s="69"/>
-      <c r="AV40" s="329"/>
-      <c r="AW40" s="329"/>
+      <c r="AV40" s="290"/>
+      <c r="AW40" s="290"/>
       <c r="AX40" s="6" t="s">
         <v>49</v>
       </c>
@@ -8884,8 +8919,8 @@
         <v>52</v>
       </c>
       <c r="AU41" s="71"/>
-      <c r="AV41" s="329"/>
-      <c r="AW41" s="329"/>
+      <c r="AV41" s="290"/>
+      <c r="AW41" s="290"/>
       <c r="AX41" s="6" t="s">
         <v>53</v>
       </c>
@@ -8898,50 +8933,50 @@
       <c r="BE41" s="1"/>
     </row>
     <row r="42" spans="1:68" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="323" t="s">
+      <c r="A42" s="276" t="s">
         <v>54</v>
       </c>
-      <c r="B42" s="323"/>
-      <c r="C42" s="323"/>
-      <c r="D42" s="323"/>
-      <c r="E42" s="323"/>
-      <c r="F42" s="323"/>
-      <c r="G42" s="323"/>
-      <c r="H42" s="323"/>
-      <c r="I42" s="323"/>
-      <c r="J42" s="323"/>
-      <c r="K42" s="323"/>
-      <c r="L42" s="323"/>
-      <c r="M42" s="323"/>
-      <c r="N42" s="323"/>
-      <c r="O42" s="323"/>
-      <c r="P42" s="323"/>
-      <c r="Q42" s="323"/>
-      <c r="R42" s="323"/>
-      <c r="S42" s="323"/>
-      <c r="T42" s="323"/>
-      <c r="U42" s="323"/>
-      <c r="V42" s="323"/>
-      <c r="W42" s="323"/>
-      <c r="X42" s="323"/>
-      <c r="Y42" s="323"/>
-      <c r="Z42" s="323"/>
-      <c r="AA42" s="323"/>
-      <c r="AB42" s="323"/>
-      <c r="AC42" s="323"/>
-      <c r="AD42" s="323"/>
-      <c r="AE42" s="323"/>
-      <c r="AF42" s="323"/>
-      <c r="AG42" s="323"/>
-      <c r="AH42" s="323"/>
-      <c r="AI42" s="323"/>
-      <c r="AJ42" s="323"/>
-      <c r="AK42" s="323"/>
-      <c r="AL42" s="323"/>
-      <c r="AM42" s="323"/>
-      <c r="AN42" s="323"/>
-      <c r="AO42" s="323"/>
-      <c r="AP42" s="323"/>
+      <c r="B42" s="276"/>
+      <c r="C42" s="276"/>
+      <c r="D42" s="276"/>
+      <c r="E42" s="276"/>
+      <c r="F42" s="276"/>
+      <c r="G42" s="276"/>
+      <c r="H42" s="276"/>
+      <c r="I42" s="276"/>
+      <c r="J42" s="276"/>
+      <c r="K42" s="276"/>
+      <c r="L42" s="276"/>
+      <c r="M42" s="276"/>
+      <c r="N42" s="276"/>
+      <c r="O42" s="276"/>
+      <c r="P42" s="276"/>
+      <c r="Q42" s="276"/>
+      <c r="R42" s="276"/>
+      <c r="S42" s="276"/>
+      <c r="T42" s="276"/>
+      <c r="U42" s="276"/>
+      <c r="V42" s="276"/>
+      <c r="W42" s="276"/>
+      <c r="X42" s="276"/>
+      <c r="Y42" s="276"/>
+      <c r="Z42" s="276"/>
+      <c r="AA42" s="276"/>
+      <c r="AB42" s="276"/>
+      <c r="AC42" s="276"/>
+      <c r="AD42" s="276"/>
+      <c r="AE42" s="276"/>
+      <c r="AF42" s="276"/>
+      <c r="AG42" s="276"/>
+      <c r="AH42" s="276"/>
+      <c r="AI42" s="276"/>
+      <c r="AJ42" s="276"/>
+      <c r="AK42" s="276"/>
+      <c r="AL42" s="276"/>
+      <c r="AM42" s="276"/>
+      <c r="AN42" s="276"/>
+      <c r="AO42" s="276"/>
+      <c r="AP42" s="276"/>
       <c r="AQ42" s="9"/>
       <c r="AR42" s="6"/>
       <c r="AS42" s="2"/>
@@ -9007,127 +9042,127 @@
       <c r="AQ43" s="159"/>
       <c r="AR43" s="6"/>
       <c r="AS43" s="2"/>
-      <c r="AT43" s="324" t="s">
+      <c r="AT43" s="284" t="s">
         <v>55</v>
       </c>
-      <c r="AU43" s="324"/>
-      <c r="AV43" s="324"/>
-      <c r="AW43" s="324"/>
-      <c r="AX43" s="324"/>
-      <c r="AY43" s="324"/>
-      <c r="AZ43" s="324"/>
-      <c r="BA43" s="324"/>
-      <c r="BB43" s="324"/>
-      <c r="BC43" s="324"/>
-      <c r="BD43" s="324"/>
+      <c r="AU43" s="284"/>
+      <c r="AV43" s="284"/>
+      <c r="AW43" s="284"/>
+      <c r="AX43" s="284"/>
+      <c r="AY43" s="284"/>
+      <c r="AZ43" s="284"/>
+      <c r="BA43" s="284"/>
+      <c r="BB43" s="284"/>
+      <c r="BC43" s="284"/>
+      <c r="BD43" s="284"/>
       <c r="BE43" s="1"/>
     </row>
     <row r="44" spans="1:68" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="325"/>
-      <c r="B44" s="325"/>
-      <c r="C44" s="325"/>
-      <c r="D44" s="325"/>
-      <c r="E44" s="325"/>
-      <c r="F44" s="325"/>
-      <c r="G44" s="325"/>
-      <c r="H44" s="325"/>
-      <c r="I44" s="325"/>
-      <c r="J44" s="325"/>
-      <c r="K44" s="325"/>
-      <c r="L44" s="325"/>
-      <c r="M44" s="325"/>
-      <c r="N44" s="325"/>
-      <c r="O44" s="325"/>
-      <c r="P44" s="325"/>
-      <c r="Q44" s="325"/>
-      <c r="R44" s="325"/>
-      <c r="S44" s="325"/>
-      <c r="T44" s="325"/>
-      <c r="U44" s="325"/>
-      <c r="V44" s="325"/>
-      <c r="W44" s="325"/>
-      <c r="X44" s="325"/>
-      <c r="Y44" s="325"/>
-      <c r="Z44" s="325"/>
-      <c r="AA44" s="325"/>
-      <c r="AB44" s="325"/>
-      <c r="AC44" s="325"/>
-      <c r="AD44" s="325"/>
-      <c r="AE44" s="325"/>
-      <c r="AF44" s="325"/>
-      <c r="AG44" s="325"/>
-      <c r="AH44" s="325"/>
-      <c r="AI44" s="325"/>
-      <c r="AJ44" s="325"/>
-      <c r="AK44" s="325"/>
-      <c r="AL44" s="325"/>
-      <c r="AM44" s="325"/>
-      <c r="AN44" s="325"/>
-      <c r="AO44" s="325"/>
-      <c r="AP44" s="325"/>
+      <c r="A44" s="285"/>
+      <c r="B44" s="285"/>
+      <c r="C44" s="285"/>
+      <c r="D44" s="285"/>
+      <c r="E44" s="285"/>
+      <c r="F44" s="285"/>
+      <c r="G44" s="285"/>
+      <c r="H44" s="285"/>
+      <c r="I44" s="285"/>
+      <c r="J44" s="285"/>
+      <c r="K44" s="285"/>
+      <c r="L44" s="285"/>
+      <c r="M44" s="285"/>
+      <c r="N44" s="285"/>
+      <c r="O44" s="285"/>
+      <c r="P44" s="285"/>
+      <c r="Q44" s="285"/>
+      <c r="R44" s="285"/>
+      <c r="S44" s="285"/>
+      <c r="T44" s="285"/>
+      <c r="U44" s="285"/>
+      <c r="V44" s="285"/>
+      <c r="W44" s="285"/>
+      <c r="X44" s="285"/>
+      <c r="Y44" s="285"/>
+      <c r="Z44" s="285"/>
+      <c r="AA44" s="285"/>
+      <c r="AB44" s="285"/>
+      <c r="AC44" s="285"/>
+      <c r="AD44" s="285"/>
+      <c r="AE44" s="285"/>
+      <c r="AF44" s="285"/>
+      <c r="AG44" s="285"/>
+      <c r="AH44" s="285"/>
+      <c r="AI44" s="285"/>
+      <c r="AJ44" s="285"/>
+      <c r="AK44" s="285"/>
+      <c r="AL44" s="285"/>
+      <c r="AM44" s="285"/>
+      <c r="AN44" s="285"/>
+      <c r="AO44" s="285"/>
+      <c r="AP44" s="285"/>
       <c r="AQ44" s="57"/>
       <c r="AR44" s="159"/>
       <c r="AS44" s="2"/>
-      <c r="AT44" s="334"/>
-      <c r="AU44" s="334"/>
-      <c r="AV44" s="334"/>
-      <c r="AW44" s="334"/>
-      <c r="AX44" s="334"/>
-      <c r="AY44" s="334"/>
-      <c r="AZ44" s="334"/>
-      <c r="BA44" s="334"/>
-      <c r="BB44" s="334"/>
-      <c r="BC44" s="334"/>
-      <c r="BD44" s="334"/>
+      <c r="AT44" s="263"/>
+      <c r="AU44" s="263"/>
+      <c r="AV44" s="263"/>
+      <c r="AW44" s="263"/>
+      <c r="AX44" s="263"/>
+      <c r="AY44" s="263"/>
+      <c r="AZ44" s="263"/>
+      <c r="BA44" s="263"/>
+      <c r="BB44" s="263"/>
+      <c r="BC44" s="263"/>
+      <c r="BD44" s="263"/>
       <c r="BE44" s="26" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:68" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="323" t="s">
+      <c r="A45" s="276" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="323"/>
-      <c r="C45" s="323"/>
-      <c r="D45" s="323"/>
-      <c r="E45" s="323"/>
-      <c r="F45" s="323"/>
-      <c r="G45" s="323"/>
-      <c r="H45" s="323"/>
-      <c r="I45" s="323"/>
-      <c r="J45" s="323"/>
-      <c r="K45" s="323"/>
-      <c r="L45" s="323"/>
-      <c r="M45" s="323"/>
-      <c r="N45" s="323"/>
-      <c r="O45" s="323"/>
-      <c r="P45" s="323"/>
-      <c r="Q45" s="323"/>
-      <c r="R45" s="323"/>
-      <c r="S45" s="323"/>
-      <c r="T45" s="323"/>
-      <c r="U45" s="323"/>
-      <c r="V45" s="323"/>
-      <c r="W45" s="323"/>
-      <c r="X45" s="323"/>
-      <c r="Y45" s="323"/>
-      <c r="Z45" s="323"/>
-      <c r="AA45" s="323"/>
-      <c r="AB45" s="323"/>
-      <c r="AC45" s="323"/>
-      <c r="AD45" s="323"/>
-      <c r="AE45" s="323"/>
-      <c r="AF45" s="323"/>
-      <c r="AG45" s="323"/>
-      <c r="AH45" s="323"/>
-      <c r="AI45" s="323"/>
-      <c r="AJ45" s="323"/>
-      <c r="AK45" s="323"/>
-      <c r="AL45" s="323"/>
-      <c r="AM45" s="323"/>
-      <c r="AN45" s="323"/>
-      <c r="AO45" s="323"/>
-      <c r="AP45" s="323"/>
+      <c r="B45" s="276"/>
+      <c r="C45" s="276"/>
+      <c r="D45" s="276"/>
+      <c r="E45" s="276"/>
+      <c r="F45" s="276"/>
+      <c r="G45" s="276"/>
+      <c r="H45" s="276"/>
+      <c r="I45" s="276"/>
+      <c r="J45" s="276"/>
+      <c r="K45" s="276"/>
+      <c r="L45" s="276"/>
+      <c r="M45" s="276"/>
+      <c r="N45" s="276"/>
+      <c r="O45" s="276"/>
+      <c r="P45" s="276"/>
+      <c r="Q45" s="276"/>
+      <c r="R45" s="276"/>
+      <c r="S45" s="276"/>
+      <c r="T45" s="276"/>
+      <c r="U45" s="276"/>
+      <c r="V45" s="276"/>
+      <c r="W45" s="276"/>
+      <c r="X45" s="276"/>
+      <c r="Y45" s="276"/>
+      <c r="Z45" s="276"/>
+      <c r="AA45" s="276"/>
+      <c r="AB45" s="276"/>
+      <c r="AC45" s="276"/>
+      <c r="AD45" s="276"/>
+      <c r="AE45" s="276"/>
+      <c r="AF45" s="276"/>
+      <c r="AG45" s="276"/>
+      <c r="AH45" s="276"/>
+      <c r="AI45" s="276"/>
+      <c r="AJ45" s="276"/>
+      <c r="AK45" s="276"/>
+      <c r="AL45" s="276"/>
+      <c r="AM45" s="276"/>
+      <c r="AN45" s="276"/>
+      <c r="AO45" s="276"/>
+      <c r="AP45" s="276"/>
       <c r="AQ45" s="9"/>
       <c r="AR45" s="59"/>
       <c r="AS45" s="2"/>
@@ -9145,50 +9180,50 @@
       <c r="BE45" s="1"/>
     </row>
     <row r="46" spans="1:68" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="348" t="s">
+      <c r="A46" s="279" t="s">
         <v>58</v>
       </c>
-      <c r="B46" s="348"/>
-      <c r="C46" s="348"/>
-      <c r="D46" s="348"/>
-      <c r="E46" s="348"/>
-      <c r="F46" s="348"/>
-      <c r="G46" s="348"/>
-      <c r="H46" s="348"/>
-      <c r="I46" s="348"/>
-      <c r="J46" s="348"/>
-      <c r="K46" s="348"/>
-      <c r="L46" s="348"/>
-      <c r="M46" s="348"/>
-      <c r="N46" s="348"/>
-      <c r="O46" s="348"/>
-      <c r="P46" s="348"/>
-      <c r="Q46" s="348"/>
-      <c r="R46" s="348"/>
-      <c r="S46" s="348"/>
-      <c r="T46" s="348"/>
-      <c r="U46" s="348"/>
-      <c r="V46" s="348"/>
-      <c r="W46" s="348"/>
-      <c r="X46" s="348"/>
-      <c r="Y46" s="348"/>
-      <c r="Z46" s="348"/>
-      <c r="AA46" s="348"/>
-      <c r="AB46" s="348"/>
-      <c r="AC46" s="348"/>
-      <c r="AD46" s="348"/>
-      <c r="AE46" s="348"/>
-      <c r="AF46" s="348"/>
-      <c r="AG46" s="348"/>
-      <c r="AH46" s="348"/>
-      <c r="AI46" s="348"/>
-      <c r="AJ46" s="348"/>
-      <c r="AK46" s="348"/>
-      <c r="AL46" s="348"/>
-      <c r="AM46" s="348"/>
-      <c r="AN46" s="348"/>
-      <c r="AO46" s="348"/>
-      <c r="AP46" s="348"/>
+      <c r="B46" s="279"/>
+      <c r="C46" s="279"/>
+      <c r="D46" s="279"/>
+      <c r="E46" s="279"/>
+      <c r="F46" s="279"/>
+      <c r="G46" s="279"/>
+      <c r="H46" s="279"/>
+      <c r="I46" s="279"/>
+      <c r="J46" s="279"/>
+      <c r="K46" s="279"/>
+      <c r="L46" s="279"/>
+      <c r="M46" s="279"/>
+      <c r="N46" s="279"/>
+      <c r="O46" s="279"/>
+      <c r="P46" s="279"/>
+      <c r="Q46" s="279"/>
+      <c r="R46" s="279"/>
+      <c r="S46" s="279"/>
+      <c r="T46" s="279"/>
+      <c r="U46" s="279"/>
+      <c r="V46" s="279"/>
+      <c r="W46" s="279"/>
+      <c r="X46" s="279"/>
+      <c r="Y46" s="279"/>
+      <c r="Z46" s="279"/>
+      <c r="AA46" s="279"/>
+      <c r="AB46" s="279"/>
+      <c r="AC46" s="279"/>
+      <c r="AD46" s="279"/>
+      <c r="AE46" s="279"/>
+      <c r="AF46" s="279"/>
+      <c r="AG46" s="279"/>
+      <c r="AH46" s="279"/>
+      <c r="AI46" s="279"/>
+      <c r="AJ46" s="279"/>
+      <c r="AK46" s="279"/>
+      <c r="AL46" s="279"/>
+      <c r="AM46" s="279"/>
+      <c r="AN46" s="279"/>
+      <c r="AO46" s="279"/>
+      <c r="AP46" s="279"/>
       <c r="AQ46" s="74"/>
       <c r="AR46" s="72"/>
       <c r="AS46" s="2"/>
@@ -9196,8 +9231,8 @@
         <v>57</v>
       </c>
       <c r="AU46" s="73"/>
-      <c r="AV46" s="346"/>
-      <c r="AW46" s="347"/>
+      <c r="AV46" s="277"/>
+      <c r="AW46" s="278"/>
       <c r="AX46" s="18"/>
       <c r="AY46" s="1"/>
       <c r="AZ46" s="19"/>
@@ -9208,50 +9243,50 @@
       <c r="BE46" s="1"/>
     </row>
     <row r="47" spans="1:68" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="342" t="s">
+      <c r="A47" s="271" t="s">
         <v>60</v>
       </c>
-      <c r="B47" s="342"/>
-      <c r="C47" s="342"/>
-      <c r="D47" s="342"/>
-      <c r="E47" s="342"/>
-      <c r="F47" s="342"/>
-      <c r="G47" s="342"/>
-      <c r="H47" s="342"/>
-      <c r="I47" s="342"/>
-      <c r="J47" s="342"/>
-      <c r="K47" s="342"/>
-      <c r="L47" s="342"/>
-      <c r="M47" s="342"/>
-      <c r="N47" s="342"/>
-      <c r="O47" s="342"/>
-      <c r="P47" s="342"/>
-      <c r="Q47" s="342"/>
-      <c r="R47" s="342"/>
-      <c r="S47" s="342"/>
-      <c r="T47" s="342"/>
-      <c r="U47" s="342"/>
-      <c r="V47" s="342"/>
-      <c r="W47" s="342"/>
-      <c r="X47" s="342"/>
-      <c r="Y47" s="342"/>
-      <c r="Z47" s="342"/>
-      <c r="AA47" s="342"/>
-      <c r="AB47" s="342"/>
-      <c r="AC47" s="342"/>
-      <c r="AD47" s="342"/>
-      <c r="AE47" s="342"/>
-      <c r="AF47" s="342"/>
-      <c r="AG47" s="342"/>
-      <c r="AH47" s="342"/>
-      <c r="AI47" s="342"/>
-      <c r="AJ47" s="342"/>
-      <c r="AK47" s="342"/>
-      <c r="AL47" s="342"/>
-      <c r="AM47" s="342"/>
-      <c r="AN47" s="342"/>
-      <c r="AO47" s="342"/>
-      <c r="AP47" s="342"/>
+      <c r="B47" s="271"/>
+      <c r="C47" s="271"/>
+      <c r="D47" s="271"/>
+      <c r="E47" s="271"/>
+      <c r="F47" s="271"/>
+      <c r="G47" s="271"/>
+      <c r="H47" s="271"/>
+      <c r="I47" s="271"/>
+      <c r="J47" s="271"/>
+      <c r="K47" s="271"/>
+      <c r="L47" s="271"/>
+      <c r="M47" s="271"/>
+      <c r="N47" s="271"/>
+      <c r="O47" s="271"/>
+      <c r="P47" s="271"/>
+      <c r="Q47" s="271"/>
+      <c r="R47" s="271"/>
+      <c r="S47" s="271"/>
+      <c r="T47" s="271"/>
+      <c r="U47" s="271"/>
+      <c r="V47" s="271"/>
+      <c r="W47" s="271"/>
+      <c r="X47" s="271"/>
+      <c r="Y47" s="271"/>
+      <c r="Z47" s="271"/>
+      <c r="AA47" s="271"/>
+      <c r="AB47" s="271"/>
+      <c r="AC47" s="271"/>
+      <c r="AD47" s="271"/>
+      <c r="AE47" s="271"/>
+      <c r="AF47" s="271"/>
+      <c r="AG47" s="271"/>
+      <c r="AH47" s="271"/>
+      <c r="AI47" s="271"/>
+      <c r="AJ47" s="271"/>
+      <c r="AK47" s="271"/>
+      <c r="AL47" s="271"/>
+      <c r="AM47" s="271"/>
+      <c r="AN47" s="271"/>
+      <c r="AO47" s="271"/>
+      <c r="AP47" s="271"/>
       <c r="AQ47" s="75"/>
       <c r="AR47" s="9"/>
       <c r="AS47" s="2"/>
@@ -9259,8 +9294,8 @@
         <v>59</v>
       </c>
       <c r="AU47" s="73"/>
-      <c r="AV47" s="346"/>
-      <c r="AW47" s="347"/>
+      <c r="AV47" s="277"/>
+      <c r="AW47" s="278"/>
       <c r="AX47" s="26" t="s">
         <v>25</v>
       </c>
@@ -9273,50 +9308,50 @@
       <c r="BE47" s="1"/>
     </row>
     <row r="48" spans="1:68" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="344" t="s">
+      <c r="A48" s="274" t="s">
         <v>62</v>
       </c>
-      <c r="B48" s="344"/>
-      <c r="C48" s="344"/>
-      <c r="D48" s="344"/>
-      <c r="E48" s="344"/>
-      <c r="F48" s="344"/>
-      <c r="G48" s="344"/>
-      <c r="H48" s="344"/>
-      <c r="I48" s="344"/>
-      <c r="J48" s="344"/>
-      <c r="K48" s="344"/>
-      <c r="L48" s="344"/>
-      <c r="M48" s="344"/>
-      <c r="N48" s="344"/>
-      <c r="O48" s="344"/>
-      <c r="P48" s="344"/>
-      <c r="Q48" s="344"/>
-      <c r="R48" s="344"/>
-      <c r="S48" s="344"/>
-      <c r="T48" s="344"/>
-      <c r="U48" s="344"/>
-      <c r="V48" s="344"/>
-      <c r="W48" s="344"/>
-      <c r="X48" s="344"/>
-      <c r="Y48" s="344"/>
-      <c r="Z48" s="344"/>
-      <c r="AA48" s="344"/>
-      <c r="AB48" s="344"/>
-      <c r="AC48" s="344"/>
-      <c r="AD48" s="344"/>
-      <c r="AE48" s="344"/>
-      <c r="AF48" s="344"/>
-      <c r="AG48" s="344"/>
-      <c r="AH48" s="344"/>
-      <c r="AI48" s="344"/>
-      <c r="AJ48" s="344"/>
-      <c r="AK48" s="344"/>
-      <c r="AL48" s="344"/>
-      <c r="AM48" s="344"/>
-      <c r="AN48" s="344"/>
-      <c r="AO48" s="344"/>
-      <c r="AP48" s="344"/>
+      <c r="B48" s="274"/>
+      <c r="C48" s="274"/>
+      <c r="D48" s="274"/>
+      <c r="E48" s="274"/>
+      <c r="F48" s="274"/>
+      <c r="G48" s="274"/>
+      <c r="H48" s="274"/>
+      <c r="I48" s="274"/>
+      <c r="J48" s="274"/>
+      <c r="K48" s="274"/>
+      <c r="L48" s="274"/>
+      <c r="M48" s="274"/>
+      <c r="N48" s="274"/>
+      <c r="O48" s="274"/>
+      <c r="P48" s="274"/>
+      <c r="Q48" s="274"/>
+      <c r="R48" s="274"/>
+      <c r="S48" s="274"/>
+      <c r="T48" s="274"/>
+      <c r="U48" s="274"/>
+      <c r="V48" s="274"/>
+      <c r="W48" s="274"/>
+      <c r="X48" s="274"/>
+      <c r="Y48" s="274"/>
+      <c r="Z48" s="274"/>
+      <c r="AA48" s="274"/>
+      <c r="AB48" s="274"/>
+      <c r="AC48" s="274"/>
+      <c r="AD48" s="274"/>
+      <c r="AE48" s="274"/>
+      <c r="AF48" s="274"/>
+      <c r="AG48" s="274"/>
+      <c r="AH48" s="274"/>
+      <c r="AI48" s="274"/>
+      <c r="AJ48" s="274"/>
+      <c r="AK48" s="274"/>
+      <c r="AL48" s="274"/>
+      <c r="AM48" s="274"/>
+      <c r="AN48" s="274"/>
+      <c r="AO48" s="274"/>
+      <c r="AP48" s="274"/>
       <c r="AQ48" s="74"/>
       <c r="AR48" s="79"/>
       <c r="AS48" s="2"/>
@@ -9324,8 +9359,8 @@
         <v>61</v>
       </c>
       <c r="AU48" s="77"/>
-      <c r="AV48" s="319"/>
-      <c r="AW48" s="320"/>
+      <c r="AV48" s="280"/>
+      <c r="AW48" s="281"/>
       <c r="AX48" s="78" t="s">
         <v>25</v>
       </c>
@@ -9338,50 +9373,50 @@
       <c r="BE48" s="1"/>
     </row>
     <row r="49" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A49" s="344" t="s">
+      <c r="A49" s="274" t="s">
         <v>63</v>
       </c>
-      <c r="B49" s="344"/>
-      <c r="C49" s="344"/>
-      <c r="D49" s="344"/>
-      <c r="E49" s="344"/>
-      <c r="F49" s="344"/>
-      <c r="G49" s="344"/>
-      <c r="H49" s="344"/>
-      <c r="I49" s="344"/>
-      <c r="J49" s="344"/>
-      <c r="K49" s="344"/>
-      <c r="L49" s="344"/>
-      <c r="M49" s="344"/>
-      <c r="N49" s="344"/>
-      <c r="O49" s="344"/>
-      <c r="P49" s="344"/>
-      <c r="Q49" s="344"/>
-      <c r="R49" s="344"/>
-      <c r="S49" s="344"/>
-      <c r="T49" s="344"/>
-      <c r="U49" s="344"/>
-      <c r="V49" s="344"/>
-      <c r="W49" s="344"/>
-      <c r="X49" s="344"/>
-      <c r="Y49" s="344"/>
-      <c r="Z49" s="344"/>
-      <c r="AA49" s="344"/>
-      <c r="AB49" s="344"/>
-      <c r="AC49" s="344"/>
-      <c r="AD49" s="344"/>
-      <c r="AE49" s="344"/>
-      <c r="AF49" s="344"/>
-      <c r="AG49" s="344"/>
-      <c r="AH49" s="344"/>
-      <c r="AI49" s="344"/>
-      <c r="AJ49" s="344"/>
-      <c r="AK49" s="344"/>
-      <c r="AL49" s="344"/>
-      <c r="AM49" s="344"/>
-      <c r="AN49" s="344"/>
-      <c r="AO49" s="344"/>
-      <c r="AP49" s="344"/>
+      <c r="B49" s="274"/>
+      <c r="C49" s="274"/>
+      <c r="D49" s="274"/>
+      <c r="E49" s="274"/>
+      <c r="F49" s="274"/>
+      <c r="G49" s="274"/>
+      <c r="H49" s="274"/>
+      <c r="I49" s="274"/>
+      <c r="J49" s="274"/>
+      <c r="K49" s="274"/>
+      <c r="L49" s="274"/>
+      <c r="M49" s="274"/>
+      <c r="N49" s="274"/>
+      <c r="O49" s="274"/>
+      <c r="P49" s="274"/>
+      <c r="Q49" s="274"/>
+      <c r="R49" s="274"/>
+      <c r="S49" s="274"/>
+      <c r="T49" s="274"/>
+      <c r="U49" s="274"/>
+      <c r="V49" s="274"/>
+      <c r="W49" s="274"/>
+      <c r="X49" s="274"/>
+      <c r="Y49" s="274"/>
+      <c r="Z49" s="274"/>
+      <c r="AA49" s="274"/>
+      <c r="AB49" s="274"/>
+      <c r="AC49" s="274"/>
+      <c r="AD49" s="274"/>
+      <c r="AE49" s="274"/>
+      <c r="AF49" s="274"/>
+      <c r="AG49" s="274"/>
+      <c r="AH49" s="274"/>
+      <c r="AI49" s="274"/>
+      <c r="AJ49" s="274"/>
+      <c r="AK49" s="274"/>
+      <c r="AL49" s="274"/>
+      <c r="AM49" s="274"/>
+      <c r="AN49" s="274"/>
+      <c r="AO49" s="274"/>
+      <c r="AP49" s="274"/>
       <c r="AQ49" s="74"/>
       <c r="AR49" s="75"/>
       <c r="AS49" s="2"/>
@@ -9399,50 +9434,50 @@
       <c r="BE49" s="1"/>
     </row>
     <row r="50" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A50" s="344" t="s">
+      <c r="A50" s="274" t="s">
         <v>64</v>
       </c>
-      <c r="B50" s="344"/>
-      <c r="C50" s="344"/>
-      <c r="D50" s="344"/>
-      <c r="E50" s="344"/>
-      <c r="F50" s="344"/>
-      <c r="G50" s="344"/>
-      <c r="H50" s="344"/>
-      <c r="I50" s="344"/>
-      <c r="J50" s="344"/>
-      <c r="K50" s="344"/>
-      <c r="L50" s="344"/>
-      <c r="M50" s="344"/>
-      <c r="N50" s="344"/>
-      <c r="O50" s="344"/>
-      <c r="P50" s="344"/>
-      <c r="Q50" s="344"/>
-      <c r="R50" s="344"/>
-      <c r="S50" s="344"/>
-      <c r="T50" s="344"/>
-      <c r="U50" s="344"/>
-      <c r="V50" s="344"/>
-      <c r="W50" s="344"/>
-      <c r="X50" s="344"/>
-      <c r="Y50" s="344"/>
-      <c r="Z50" s="344"/>
-      <c r="AA50" s="344"/>
-      <c r="AB50" s="344"/>
-      <c r="AC50" s="344"/>
-      <c r="AD50" s="344"/>
-      <c r="AE50" s="344"/>
-      <c r="AF50" s="344"/>
-      <c r="AG50" s="344"/>
-      <c r="AH50" s="344"/>
-      <c r="AI50" s="344"/>
-      <c r="AJ50" s="344"/>
-      <c r="AK50" s="344"/>
-      <c r="AL50" s="344"/>
-      <c r="AM50" s="344"/>
-      <c r="AN50" s="344"/>
-      <c r="AO50" s="344"/>
-      <c r="AP50" s="344"/>
+      <c r="B50" s="274"/>
+      <c r="C50" s="274"/>
+      <c r="D50" s="274"/>
+      <c r="E50" s="274"/>
+      <c r="F50" s="274"/>
+      <c r="G50" s="274"/>
+      <c r="H50" s="274"/>
+      <c r="I50" s="274"/>
+      <c r="J50" s="274"/>
+      <c r="K50" s="274"/>
+      <c r="L50" s="274"/>
+      <c r="M50" s="274"/>
+      <c r="N50" s="274"/>
+      <c r="O50" s="274"/>
+      <c r="P50" s="274"/>
+      <c r="Q50" s="274"/>
+      <c r="R50" s="274"/>
+      <c r="S50" s="274"/>
+      <c r="T50" s="274"/>
+      <c r="U50" s="274"/>
+      <c r="V50" s="274"/>
+      <c r="W50" s="274"/>
+      <c r="X50" s="274"/>
+      <c r="Y50" s="274"/>
+      <c r="Z50" s="274"/>
+      <c r="AA50" s="274"/>
+      <c r="AB50" s="274"/>
+      <c r="AC50" s="274"/>
+      <c r="AD50" s="274"/>
+      <c r="AE50" s="274"/>
+      <c r="AF50" s="274"/>
+      <c r="AG50" s="274"/>
+      <c r="AH50" s="274"/>
+      <c r="AI50" s="274"/>
+      <c r="AJ50" s="274"/>
+      <c r="AK50" s="274"/>
+      <c r="AL50" s="274"/>
+      <c r="AM50" s="274"/>
+      <c r="AN50" s="274"/>
+      <c r="AO50" s="274"/>
+      <c r="AP50" s="274"/>
       <c r="AQ50" s="74"/>
       <c r="AR50" s="79"/>
       <c r="AS50" s="2"/>
@@ -9470,10 +9505,10 @@
       <c r="F51" s="80"/>
       <c r="G51" s="80"/>
       <c r="H51" s="80"/>
-      <c r="I51" s="345" t="s">
+      <c r="I51" s="275" t="s">
         <v>66</v>
       </c>
-      <c r="J51" s="345"/>
+      <c r="J51" s="275"/>
       <c r="K51" s="81" t="s">
         <v>423</v>
       </c>
@@ -9525,54 +9560,54 @@
       <c r="BE51" s="1"/>
     </row>
     <row r="52" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A52" s="322" t="s">
+      <c r="A52" s="283" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="322"/>
-      <c r="C52" s="322"/>
-      <c r="D52" s="322"/>
-      <c r="E52" s="322"/>
-      <c r="F52" s="322"/>
-      <c r="G52" s="321" t="str">
+      <c r="B52" s="283"/>
+      <c r="C52" s="283"/>
+      <c r="D52" s="283"/>
+      <c r="E52" s="283"/>
+      <c r="F52" s="283"/>
+      <c r="G52" s="282" t="str">
         <f>CONCATENATE("Portaria INMETRO nº 029 de 10/03/95",", ",'Multi Seleção'!A11,", ",'Multi Seleção'!A12,", ",'Multi Seleção'!A13)</f>
         <v xml:space="preserve">Portaria INMETRO nº 029 de 10/03/95, Indicação Orientativa: A Norma NBR14105 (não compulsória) determina um erro máximo admissível de 2% sobre o maior valor da escala (SPAN), , </v>
       </c>
-      <c r="H52" s="321"/>
-      <c r="I52" s="321"/>
-      <c r="J52" s="321"/>
-      <c r="K52" s="321"/>
-      <c r="L52" s="321"/>
-      <c r="M52" s="321"/>
-      <c r="N52" s="321"/>
-      <c r="O52" s="321"/>
-      <c r="P52" s="321"/>
-      <c r="Q52" s="321"/>
-      <c r="R52" s="321"/>
-      <c r="S52" s="321"/>
-      <c r="T52" s="321"/>
-      <c r="U52" s="321"/>
-      <c r="V52" s="321"/>
-      <c r="W52" s="321"/>
-      <c r="X52" s="321"/>
-      <c r="Y52" s="321"/>
-      <c r="Z52" s="321"/>
-      <c r="AA52" s="321"/>
-      <c r="AB52" s="321"/>
-      <c r="AC52" s="321"/>
-      <c r="AD52" s="321"/>
-      <c r="AE52" s="321"/>
-      <c r="AF52" s="321"/>
-      <c r="AG52" s="321"/>
-      <c r="AH52" s="321"/>
-      <c r="AI52" s="321"/>
-      <c r="AJ52" s="321"/>
-      <c r="AK52" s="321"/>
-      <c r="AL52" s="321"/>
-      <c r="AM52" s="321"/>
-      <c r="AN52" s="321"/>
-      <c r="AO52" s="321"/>
-      <c r="AP52" s="321"/>
-      <c r="AQ52" s="321"/>
+      <c r="H52" s="282"/>
+      <c r="I52" s="282"/>
+      <c r="J52" s="282"/>
+      <c r="K52" s="282"/>
+      <c r="L52" s="282"/>
+      <c r="M52" s="282"/>
+      <c r="N52" s="282"/>
+      <c r="O52" s="282"/>
+      <c r="P52" s="282"/>
+      <c r="Q52" s="282"/>
+      <c r="R52" s="282"/>
+      <c r="S52" s="282"/>
+      <c r="T52" s="282"/>
+      <c r="U52" s="282"/>
+      <c r="V52" s="282"/>
+      <c r="W52" s="282"/>
+      <c r="X52" s="282"/>
+      <c r="Y52" s="282"/>
+      <c r="Z52" s="282"/>
+      <c r="AA52" s="282"/>
+      <c r="AB52" s="282"/>
+      <c r="AC52" s="282"/>
+      <c r="AD52" s="282"/>
+      <c r="AE52" s="282"/>
+      <c r="AF52" s="282"/>
+      <c r="AG52" s="282"/>
+      <c r="AH52" s="282"/>
+      <c r="AI52" s="282"/>
+      <c r="AJ52" s="282"/>
+      <c r="AK52" s="282"/>
+      <c r="AL52" s="282"/>
+      <c r="AM52" s="282"/>
+      <c r="AN52" s="282"/>
+      <c r="AO52" s="282"/>
+      <c r="AP52" s="282"/>
+      <c r="AQ52" s="282"/>
       <c r="AR52" s="79"/>
       <c r="AS52" s="2"/>
       <c r="AT52" s="1"/>
@@ -9589,49 +9624,49 @@
       <c r="BE52" s="1"/>
     </row>
     <row r="53" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A53" s="322"/>
-      <c r="B53" s="322"/>
-      <c r="C53" s="322"/>
-      <c r="D53" s="322"/>
-      <c r="E53" s="322"/>
-      <c r="F53" s="322"/>
-      <c r="G53" s="321"/>
-      <c r="H53" s="321"/>
-      <c r="I53" s="321"/>
-      <c r="J53" s="321"/>
-      <c r="K53" s="321"/>
-      <c r="L53" s="321"/>
-      <c r="M53" s="321"/>
-      <c r="N53" s="321"/>
-      <c r="O53" s="321"/>
-      <c r="P53" s="321"/>
-      <c r="Q53" s="321"/>
-      <c r="R53" s="321"/>
-      <c r="S53" s="321"/>
-      <c r="T53" s="321"/>
-      <c r="U53" s="321"/>
-      <c r="V53" s="321"/>
-      <c r="W53" s="321"/>
-      <c r="X53" s="321"/>
-      <c r="Y53" s="321"/>
-      <c r="Z53" s="321"/>
-      <c r="AA53" s="321"/>
-      <c r="AB53" s="321"/>
-      <c r="AC53" s="321"/>
-      <c r="AD53" s="321"/>
-      <c r="AE53" s="321"/>
-      <c r="AF53" s="321"/>
-      <c r="AG53" s="321"/>
-      <c r="AH53" s="321"/>
-      <c r="AI53" s="321"/>
-      <c r="AJ53" s="321"/>
-      <c r="AK53" s="321"/>
-      <c r="AL53" s="321"/>
-      <c r="AM53" s="321"/>
-      <c r="AN53" s="321"/>
-      <c r="AO53" s="321"/>
-      <c r="AP53" s="321"/>
-      <c r="AQ53" s="321"/>
+      <c r="A53" s="283"/>
+      <c r="B53" s="283"/>
+      <c r="C53" s="283"/>
+      <c r="D53" s="283"/>
+      <c r="E53" s="283"/>
+      <c r="F53" s="283"/>
+      <c r="G53" s="282"/>
+      <c r="H53" s="282"/>
+      <c r="I53" s="282"/>
+      <c r="J53" s="282"/>
+      <c r="K53" s="282"/>
+      <c r="L53" s="282"/>
+      <c r="M53" s="282"/>
+      <c r="N53" s="282"/>
+      <c r="O53" s="282"/>
+      <c r="P53" s="282"/>
+      <c r="Q53" s="282"/>
+      <c r="R53" s="282"/>
+      <c r="S53" s="282"/>
+      <c r="T53" s="282"/>
+      <c r="U53" s="282"/>
+      <c r="V53" s="282"/>
+      <c r="W53" s="282"/>
+      <c r="X53" s="282"/>
+      <c r="Y53" s="282"/>
+      <c r="Z53" s="282"/>
+      <c r="AA53" s="282"/>
+      <c r="AB53" s="282"/>
+      <c r="AC53" s="282"/>
+      <c r="AD53" s="282"/>
+      <c r="AE53" s="282"/>
+      <c r="AF53" s="282"/>
+      <c r="AG53" s="282"/>
+      <c r="AH53" s="282"/>
+      <c r="AI53" s="282"/>
+      <c r="AJ53" s="282"/>
+      <c r="AK53" s="282"/>
+      <c r="AL53" s="282"/>
+      <c r="AM53" s="282"/>
+      <c r="AN53" s="282"/>
+      <c r="AO53" s="282"/>
+      <c r="AP53" s="282"/>
+      <c r="AQ53" s="282"/>
       <c r="AR53" s="160"/>
       <c r="AS53" s="2"/>
       <c r="AT53" s="1"/>
@@ -9648,50 +9683,50 @@
       <c r="BE53" s="1"/>
     </row>
     <row r="54" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A54" s="340" t="s">
+      <c r="A54" s="269" t="s">
         <v>68</v>
       </c>
-      <c r="B54" s="340"/>
-      <c r="C54" s="340"/>
-      <c r="D54" s="340"/>
-      <c r="E54" s="340"/>
-      <c r="F54" s="340"/>
-      <c r="G54" s="340"/>
-      <c r="H54" s="340"/>
-      <c r="I54" s="340"/>
-      <c r="J54" s="340"/>
-      <c r="K54" s="340"/>
-      <c r="L54" s="340"/>
-      <c r="M54" s="340"/>
-      <c r="N54" s="340"/>
-      <c r="O54" s="340"/>
-      <c r="P54" s="340"/>
-      <c r="Q54" s="340"/>
-      <c r="R54" s="340"/>
-      <c r="S54" s="340"/>
-      <c r="T54" s="340"/>
-      <c r="U54" s="340"/>
-      <c r="V54" s="340"/>
-      <c r="W54" s="340"/>
-      <c r="X54" s="340"/>
-      <c r="Y54" s="340"/>
-      <c r="Z54" s="340"/>
-      <c r="AA54" s="340"/>
-      <c r="AB54" s="340"/>
-      <c r="AC54" s="340"/>
-      <c r="AD54" s="340"/>
-      <c r="AE54" s="340"/>
-      <c r="AF54" s="340"/>
-      <c r="AG54" s="340"/>
-      <c r="AH54" s="340"/>
-      <c r="AI54" s="340"/>
-      <c r="AJ54" s="340"/>
-      <c r="AK54" s="340"/>
-      <c r="AL54" s="340"/>
-      <c r="AM54" s="340"/>
-      <c r="AN54" s="340"/>
-      <c r="AO54" s="340"/>
-      <c r="AP54" s="340"/>
+      <c r="B54" s="269"/>
+      <c r="C54" s="269"/>
+      <c r="D54" s="269"/>
+      <c r="E54" s="269"/>
+      <c r="F54" s="269"/>
+      <c r="G54" s="269"/>
+      <c r="H54" s="269"/>
+      <c r="I54" s="269"/>
+      <c r="J54" s="269"/>
+      <c r="K54" s="269"/>
+      <c r="L54" s="269"/>
+      <c r="M54" s="269"/>
+      <c r="N54" s="269"/>
+      <c r="O54" s="269"/>
+      <c r="P54" s="269"/>
+      <c r="Q54" s="269"/>
+      <c r="R54" s="269"/>
+      <c r="S54" s="269"/>
+      <c r="T54" s="269"/>
+      <c r="U54" s="269"/>
+      <c r="V54" s="269"/>
+      <c r="W54" s="269"/>
+      <c r="X54" s="269"/>
+      <c r="Y54" s="269"/>
+      <c r="Z54" s="269"/>
+      <c r="AA54" s="269"/>
+      <c r="AB54" s="269"/>
+      <c r="AC54" s="269"/>
+      <c r="AD54" s="269"/>
+      <c r="AE54" s="269"/>
+      <c r="AF54" s="269"/>
+      <c r="AG54" s="269"/>
+      <c r="AH54" s="269"/>
+      <c r="AI54" s="269"/>
+      <c r="AJ54" s="269"/>
+      <c r="AK54" s="269"/>
+      <c r="AL54" s="269"/>
+      <c r="AM54" s="269"/>
+      <c r="AN54" s="269"/>
+      <c r="AO54" s="269"/>
+      <c r="AP54" s="269"/>
       <c r="AQ54" s="83"/>
       <c r="AR54" s="160"/>
       <c r="AS54" s="2"/>
@@ -9709,48 +9744,48 @@
       <c r="BE54" s="1"/>
     </row>
     <row r="55" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A55" s="340"/>
-      <c r="B55" s="340"/>
-      <c r="C55" s="340"/>
-      <c r="D55" s="340"/>
-      <c r="E55" s="340"/>
-      <c r="F55" s="340"/>
-      <c r="G55" s="340"/>
-      <c r="H55" s="340"/>
-      <c r="I55" s="340"/>
-      <c r="J55" s="340"/>
-      <c r="K55" s="340"/>
-      <c r="L55" s="340"/>
-      <c r="M55" s="340"/>
-      <c r="N55" s="340"/>
-      <c r="O55" s="340"/>
-      <c r="P55" s="340"/>
-      <c r="Q55" s="340"/>
-      <c r="R55" s="340"/>
-      <c r="S55" s="340"/>
-      <c r="T55" s="340"/>
-      <c r="U55" s="340"/>
-      <c r="V55" s="340"/>
-      <c r="W55" s="340"/>
-      <c r="X55" s="340"/>
-      <c r="Y55" s="340"/>
-      <c r="Z55" s="340"/>
-      <c r="AA55" s="340"/>
-      <c r="AB55" s="340"/>
-      <c r="AC55" s="340"/>
-      <c r="AD55" s="340"/>
-      <c r="AE55" s="340"/>
-      <c r="AF55" s="340"/>
-      <c r="AG55" s="340"/>
-      <c r="AH55" s="340"/>
-      <c r="AI55" s="340"/>
-      <c r="AJ55" s="340"/>
-      <c r="AK55" s="340"/>
-      <c r="AL55" s="340"/>
-      <c r="AM55" s="340"/>
-      <c r="AN55" s="340"/>
-      <c r="AO55" s="340"/>
-      <c r="AP55" s="340"/>
+      <c r="A55" s="269"/>
+      <c r="B55" s="269"/>
+      <c r="C55" s="269"/>
+      <c r="D55" s="269"/>
+      <c r="E55" s="269"/>
+      <c r="F55" s="269"/>
+      <c r="G55" s="269"/>
+      <c r="H55" s="269"/>
+      <c r="I55" s="269"/>
+      <c r="J55" s="269"/>
+      <c r="K55" s="269"/>
+      <c r="L55" s="269"/>
+      <c r="M55" s="269"/>
+      <c r="N55" s="269"/>
+      <c r="O55" s="269"/>
+      <c r="P55" s="269"/>
+      <c r="Q55" s="269"/>
+      <c r="R55" s="269"/>
+      <c r="S55" s="269"/>
+      <c r="T55" s="269"/>
+      <c r="U55" s="269"/>
+      <c r="V55" s="269"/>
+      <c r="W55" s="269"/>
+      <c r="X55" s="269"/>
+      <c r="Y55" s="269"/>
+      <c r="Z55" s="269"/>
+      <c r="AA55" s="269"/>
+      <c r="AB55" s="269"/>
+      <c r="AC55" s="269"/>
+      <c r="AD55" s="269"/>
+      <c r="AE55" s="269"/>
+      <c r="AF55" s="269"/>
+      <c r="AG55" s="269"/>
+      <c r="AH55" s="269"/>
+      <c r="AI55" s="269"/>
+      <c r="AJ55" s="269"/>
+      <c r="AK55" s="269"/>
+      <c r="AL55" s="269"/>
+      <c r="AM55" s="269"/>
+      <c r="AN55" s="269"/>
+      <c r="AO55" s="269"/>
+      <c r="AP55" s="269"/>
       <c r="AQ55" s="83"/>
       <c r="AR55" s="82"/>
       <c r="AS55" s="2"/>
@@ -9768,50 +9803,50 @@
       <c r="BE55" s="6"/>
     </row>
     <row r="56" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A56" s="340" t="s">
+      <c r="A56" s="269" t="s">
         <v>69</v>
       </c>
-      <c r="B56" s="340"/>
-      <c r="C56" s="340"/>
-      <c r="D56" s="340"/>
-      <c r="E56" s="340"/>
-      <c r="F56" s="340"/>
-      <c r="G56" s="340"/>
-      <c r="H56" s="340"/>
-      <c r="I56" s="340"/>
-      <c r="J56" s="340"/>
-      <c r="K56" s="340"/>
-      <c r="L56" s="340"/>
-      <c r="M56" s="340"/>
-      <c r="N56" s="340"/>
-      <c r="O56" s="340"/>
-      <c r="P56" s="340"/>
-      <c r="Q56" s="340"/>
-      <c r="R56" s="340"/>
-      <c r="S56" s="340"/>
-      <c r="T56" s="340"/>
-      <c r="U56" s="340"/>
-      <c r="V56" s="340"/>
-      <c r="W56" s="340"/>
-      <c r="X56" s="340"/>
-      <c r="Y56" s="340"/>
-      <c r="Z56" s="340"/>
-      <c r="AA56" s="340"/>
-      <c r="AB56" s="340"/>
-      <c r="AC56" s="340"/>
-      <c r="AD56" s="340"/>
-      <c r="AE56" s="340"/>
-      <c r="AF56" s="340"/>
-      <c r="AG56" s="340"/>
-      <c r="AH56" s="340"/>
-      <c r="AI56" s="340"/>
-      <c r="AJ56" s="340"/>
-      <c r="AK56" s="340"/>
-      <c r="AL56" s="340"/>
-      <c r="AM56" s="340"/>
-      <c r="AN56" s="340"/>
-      <c r="AO56" s="340"/>
-      <c r="AP56" s="340"/>
+      <c r="B56" s="269"/>
+      <c r="C56" s="269"/>
+      <c r="D56" s="269"/>
+      <c r="E56" s="269"/>
+      <c r="F56" s="269"/>
+      <c r="G56" s="269"/>
+      <c r="H56" s="269"/>
+      <c r="I56" s="269"/>
+      <c r="J56" s="269"/>
+      <c r="K56" s="269"/>
+      <c r="L56" s="269"/>
+      <c r="M56" s="269"/>
+      <c r="N56" s="269"/>
+      <c r="O56" s="269"/>
+      <c r="P56" s="269"/>
+      <c r="Q56" s="269"/>
+      <c r="R56" s="269"/>
+      <c r="S56" s="269"/>
+      <c r="T56" s="269"/>
+      <c r="U56" s="269"/>
+      <c r="V56" s="269"/>
+      <c r="W56" s="269"/>
+      <c r="X56" s="269"/>
+      <c r="Y56" s="269"/>
+      <c r="Z56" s="269"/>
+      <c r="AA56" s="269"/>
+      <c r="AB56" s="269"/>
+      <c r="AC56" s="269"/>
+      <c r="AD56" s="269"/>
+      <c r="AE56" s="269"/>
+      <c r="AF56" s="269"/>
+      <c r="AG56" s="269"/>
+      <c r="AH56" s="269"/>
+      <c r="AI56" s="269"/>
+      <c r="AJ56" s="269"/>
+      <c r="AK56" s="269"/>
+      <c r="AL56" s="269"/>
+      <c r="AM56" s="269"/>
+      <c r="AN56" s="269"/>
+      <c r="AO56" s="269"/>
+      <c r="AP56" s="269"/>
       <c r="AQ56" s="83"/>
       <c r="AR56" s="83"/>
       <c r="AS56" s="2"/>
@@ -9829,48 +9864,48 @@
       <c r="BE56" s="84"/>
     </row>
     <row r="57" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A57" s="340"/>
-      <c r="B57" s="340"/>
-      <c r="C57" s="340"/>
-      <c r="D57" s="340"/>
-      <c r="E57" s="340"/>
-      <c r="F57" s="340"/>
-      <c r="G57" s="340"/>
-      <c r="H57" s="340"/>
-      <c r="I57" s="340"/>
-      <c r="J57" s="340"/>
-      <c r="K57" s="340"/>
-      <c r="L57" s="340"/>
-      <c r="M57" s="340"/>
-      <c r="N57" s="340"/>
-      <c r="O57" s="340"/>
-      <c r="P57" s="340"/>
-      <c r="Q57" s="340"/>
-      <c r="R57" s="340"/>
-      <c r="S57" s="340"/>
-      <c r="T57" s="340"/>
-      <c r="U57" s="340"/>
-      <c r="V57" s="340"/>
-      <c r="W57" s="340"/>
-      <c r="X57" s="340"/>
-      <c r="Y57" s="340"/>
-      <c r="Z57" s="340"/>
-      <c r="AA57" s="340"/>
-      <c r="AB57" s="340"/>
-      <c r="AC57" s="340"/>
-      <c r="AD57" s="340"/>
-      <c r="AE57" s="340"/>
-      <c r="AF57" s="340"/>
-      <c r="AG57" s="340"/>
-      <c r="AH57" s="340"/>
-      <c r="AI57" s="340"/>
-      <c r="AJ57" s="340"/>
-      <c r="AK57" s="340"/>
-      <c r="AL57" s="340"/>
-      <c r="AM57" s="340"/>
-      <c r="AN57" s="340"/>
-      <c r="AO57" s="340"/>
-      <c r="AP57" s="340"/>
+      <c r="A57" s="269"/>
+      <c r="B57" s="269"/>
+      <c r="C57" s="269"/>
+      <c r="D57" s="269"/>
+      <c r="E57" s="269"/>
+      <c r="F57" s="269"/>
+      <c r="G57" s="269"/>
+      <c r="H57" s="269"/>
+      <c r="I57" s="269"/>
+      <c r="J57" s="269"/>
+      <c r="K57" s="269"/>
+      <c r="L57" s="269"/>
+      <c r="M57" s="269"/>
+      <c r="N57" s="269"/>
+      <c r="O57" s="269"/>
+      <c r="P57" s="269"/>
+      <c r="Q57" s="269"/>
+      <c r="R57" s="269"/>
+      <c r="S57" s="269"/>
+      <c r="T57" s="269"/>
+      <c r="U57" s="269"/>
+      <c r="V57" s="269"/>
+      <c r="W57" s="269"/>
+      <c r="X57" s="269"/>
+      <c r="Y57" s="269"/>
+      <c r="Z57" s="269"/>
+      <c r="AA57" s="269"/>
+      <c r="AB57" s="269"/>
+      <c r="AC57" s="269"/>
+      <c r="AD57" s="269"/>
+      <c r="AE57" s="269"/>
+      <c r="AF57" s="269"/>
+      <c r="AG57" s="269"/>
+      <c r="AH57" s="269"/>
+      <c r="AI57" s="269"/>
+      <c r="AJ57" s="269"/>
+      <c r="AK57" s="269"/>
+      <c r="AL57" s="269"/>
+      <c r="AM57" s="269"/>
+      <c r="AN57" s="269"/>
+      <c r="AO57" s="269"/>
+      <c r="AP57" s="269"/>
       <c r="AQ57" s="83"/>
       <c r="AR57" s="83"/>
       <c r="AS57" s="2"/>
@@ -9888,50 +9923,50 @@
       <c r="BE57" s="84"/>
     </row>
     <row r="58" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A58" s="341" t="s">
+      <c r="A58" s="270" t="s">
         <v>70</v>
       </c>
-      <c r="B58" s="341"/>
-      <c r="C58" s="341"/>
-      <c r="D58" s="341"/>
-      <c r="E58" s="341"/>
-      <c r="F58" s="341"/>
-      <c r="G58" s="341"/>
-      <c r="H58" s="341"/>
-      <c r="I58" s="341"/>
-      <c r="J58" s="341"/>
-      <c r="K58" s="341"/>
-      <c r="L58" s="341"/>
-      <c r="M58" s="341"/>
-      <c r="N58" s="341"/>
-      <c r="O58" s="341"/>
-      <c r="P58" s="341"/>
-      <c r="Q58" s="341"/>
-      <c r="R58" s="341"/>
-      <c r="S58" s="341"/>
-      <c r="T58" s="341"/>
-      <c r="U58" s="341"/>
-      <c r="V58" s="341"/>
-      <c r="W58" s="341"/>
-      <c r="X58" s="341"/>
-      <c r="Y58" s="341"/>
-      <c r="Z58" s="341"/>
-      <c r="AA58" s="341"/>
-      <c r="AB58" s="341"/>
-      <c r="AC58" s="341"/>
-      <c r="AD58" s="341"/>
-      <c r="AE58" s="341"/>
-      <c r="AF58" s="341"/>
-      <c r="AG58" s="341"/>
-      <c r="AH58" s="341"/>
-      <c r="AI58" s="341"/>
-      <c r="AJ58" s="341"/>
-      <c r="AK58" s="341"/>
-      <c r="AL58" s="341"/>
-      <c r="AM58" s="341"/>
-      <c r="AN58" s="341"/>
-      <c r="AO58" s="341"/>
-      <c r="AP58" s="341"/>
+      <c r="B58" s="270"/>
+      <c r="C58" s="270"/>
+      <c r="D58" s="270"/>
+      <c r="E58" s="270"/>
+      <c r="F58" s="270"/>
+      <c r="G58" s="270"/>
+      <c r="H58" s="270"/>
+      <c r="I58" s="270"/>
+      <c r="J58" s="270"/>
+      <c r="K58" s="270"/>
+      <c r="L58" s="270"/>
+      <c r="M58" s="270"/>
+      <c r="N58" s="270"/>
+      <c r="O58" s="270"/>
+      <c r="P58" s="270"/>
+      <c r="Q58" s="270"/>
+      <c r="R58" s="270"/>
+      <c r="S58" s="270"/>
+      <c r="T58" s="270"/>
+      <c r="U58" s="270"/>
+      <c r="V58" s="270"/>
+      <c r="W58" s="270"/>
+      <c r="X58" s="270"/>
+      <c r="Y58" s="270"/>
+      <c r="Z58" s="270"/>
+      <c r="AA58" s="270"/>
+      <c r="AB58" s="270"/>
+      <c r="AC58" s="270"/>
+      <c r="AD58" s="270"/>
+      <c r="AE58" s="270"/>
+      <c r="AF58" s="270"/>
+      <c r="AG58" s="270"/>
+      <c r="AH58" s="270"/>
+      <c r="AI58" s="270"/>
+      <c r="AJ58" s="270"/>
+      <c r="AK58" s="270"/>
+      <c r="AL58" s="270"/>
+      <c r="AM58" s="270"/>
+      <c r="AN58" s="270"/>
+      <c r="AO58" s="270"/>
+      <c r="AP58" s="270"/>
       <c r="AQ58" s="85"/>
       <c r="AR58" s="83"/>
       <c r="AS58" s="2"/>
@@ -9949,50 +9984,50 @@
       <c r="BE58" s="84"/>
     </row>
     <row r="59" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A59" s="342" t="s">
+      <c r="A59" s="271" t="s">
         <v>71</v>
       </c>
-      <c r="B59" s="342"/>
-      <c r="C59" s="342"/>
-      <c r="D59" s="342"/>
-      <c r="E59" s="342"/>
-      <c r="F59" s="342"/>
-      <c r="G59" s="342"/>
-      <c r="H59" s="342"/>
-      <c r="I59" s="342"/>
-      <c r="J59" s="342"/>
-      <c r="K59" s="342"/>
-      <c r="L59" s="342"/>
-      <c r="M59" s="342"/>
-      <c r="N59" s="342"/>
-      <c r="O59" s="342"/>
-      <c r="P59" s="342"/>
-      <c r="Q59" s="342"/>
-      <c r="R59" s="342"/>
-      <c r="S59" s="342"/>
-      <c r="T59" s="342"/>
-      <c r="U59" s="342"/>
-      <c r="V59" s="342"/>
-      <c r="W59" s="342"/>
-      <c r="X59" s="342"/>
-      <c r="Y59" s="342"/>
-      <c r="Z59" s="342"/>
-      <c r="AA59" s="342"/>
-      <c r="AB59" s="342"/>
-      <c r="AC59" s="342"/>
-      <c r="AD59" s="342"/>
-      <c r="AE59" s="342"/>
-      <c r="AF59" s="342"/>
-      <c r="AG59" s="342"/>
-      <c r="AH59" s="342"/>
-      <c r="AI59" s="342"/>
-      <c r="AJ59" s="342"/>
-      <c r="AK59" s="342"/>
-      <c r="AL59" s="342"/>
-      <c r="AM59" s="342"/>
-      <c r="AN59" s="342"/>
-      <c r="AO59" s="342"/>
-      <c r="AP59" s="342"/>
+      <c r="B59" s="271"/>
+      <c r="C59" s="271"/>
+      <c r="D59" s="271"/>
+      <c r="E59" s="271"/>
+      <c r="F59" s="271"/>
+      <c r="G59" s="271"/>
+      <c r="H59" s="271"/>
+      <c r="I59" s="271"/>
+      <c r="J59" s="271"/>
+      <c r="K59" s="271"/>
+      <c r="L59" s="271"/>
+      <c r="M59" s="271"/>
+      <c r="N59" s="271"/>
+      <c r="O59" s="271"/>
+      <c r="P59" s="271"/>
+      <c r="Q59" s="271"/>
+      <c r="R59" s="271"/>
+      <c r="S59" s="271"/>
+      <c r="T59" s="271"/>
+      <c r="U59" s="271"/>
+      <c r="V59" s="271"/>
+      <c r="W59" s="271"/>
+      <c r="X59" s="271"/>
+      <c r="Y59" s="271"/>
+      <c r="Z59" s="271"/>
+      <c r="AA59" s="271"/>
+      <c r="AB59" s="271"/>
+      <c r="AC59" s="271"/>
+      <c r="AD59" s="271"/>
+      <c r="AE59" s="271"/>
+      <c r="AF59" s="271"/>
+      <c r="AG59" s="271"/>
+      <c r="AH59" s="271"/>
+      <c r="AI59" s="271"/>
+      <c r="AJ59" s="271"/>
+      <c r="AK59" s="271"/>
+      <c r="AL59" s="271"/>
+      <c r="AM59" s="271"/>
+      <c r="AN59" s="271"/>
+      <c r="AO59" s="271"/>
+      <c r="AP59" s="271"/>
       <c r="AQ59" s="75"/>
       <c r="AR59" s="83"/>
       <c r="AS59" s="2"/>
@@ -10010,48 +10045,48 @@
       <c r="BE59" s="1"/>
     </row>
     <row r="60" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A60" s="342"/>
-      <c r="B60" s="342"/>
-      <c r="C60" s="342"/>
-      <c r="D60" s="342"/>
-      <c r="E60" s="342"/>
-      <c r="F60" s="342"/>
-      <c r="G60" s="342"/>
-      <c r="H60" s="342"/>
-      <c r="I60" s="342"/>
-      <c r="J60" s="342"/>
-      <c r="K60" s="342"/>
-      <c r="L60" s="342"/>
-      <c r="M60" s="342"/>
-      <c r="N60" s="342"/>
-      <c r="O60" s="342"/>
-      <c r="P60" s="342"/>
-      <c r="Q60" s="342"/>
-      <c r="R60" s="342"/>
-      <c r="S60" s="342"/>
-      <c r="T60" s="342"/>
-      <c r="U60" s="342"/>
-      <c r="V60" s="342"/>
-      <c r="W60" s="342"/>
-      <c r="X60" s="342"/>
-      <c r="Y60" s="342"/>
-      <c r="Z60" s="342"/>
-      <c r="AA60" s="342"/>
-      <c r="AB60" s="342"/>
-      <c r="AC60" s="342"/>
-      <c r="AD60" s="342"/>
-      <c r="AE60" s="342"/>
-      <c r="AF60" s="342"/>
-      <c r="AG60" s="342"/>
-      <c r="AH60" s="342"/>
-      <c r="AI60" s="342"/>
-      <c r="AJ60" s="342"/>
-      <c r="AK60" s="342"/>
-      <c r="AL60" s="342"/>
-      <c r="AM60" s="342"/>
-      <c r="AN60" s="342"/>
-      <c r="AO60" s="342"/>
-      <c r="AP60" s="342"/>
+      <c r="A60" s="271"/>
+      <c r="B60" s="271"/>
+      <c r="C60" s="271"/>
+      <c r="D60" s="271"/>
+      <c r="E60" s="271"/>
+      <c r="F60" s="271"/>
+      <c r="G60" s="271"/>
+      <c r="H60" s="271"/>
+      <c r="I60" s="271"/>
+      <c r="J60" s="271"/>
+      <c r="K60" s="271"/>
+      <c r="L60" s="271"/>
+      <c r="M60" s="271"/>
+      <c r="N60" s="271"/>
+      <c r="O60" s="271"/>
+      <c r="P60" s="271"/>
+      <c r="Q60" s="271"/>
+      <c r="R60" s="271"/>
+      <c r="S60" s="271"/>
+      <c r="T60" s="271"/>
+      <c r="U60" s="271"/>
+      <c r="V60" s="271"/>
+      <c r="W60" s="271"/>
+      <c r="X60" s="271"/>
+      <c r="Y60" s="271"/>
+      <c r="Z60" s="271"/>
+      <c r="AA60" s="271"/>
+      <c r="AB60" s="271"/>
+      <c r="AC60" s="271"/>
+      <c r="AD60" s="271"/>
+      <c r="AE60" s="271"/>
+      <c r="AF60" s="271"/>
+      <c r="AG60" s="271"/>
+      <c r="AH60" s="271"/>
+      <c r="AI60" s="271"/>
+      <c r="AJ60" s="271"/>
+      <c r="AK60" s="271"/>
+      <c r="AL60" s="271"/>
+      <c r="AM60" s="271"/>
+      <c r="AN60" s="271"/>
+      <c r="AO60" s="271"/>
+      <c r="AP60" s="271"/>
       <c r="AQ60" s="75"/>
       <c r="AR60" s="85"/>
       <c r="AS60" s="2"/>
@@ -10142,13 +10177,13 @@
       <c r="J62" s="1"/>
       <c r="K62" s="86"/>
       <c r="L62" s="1"/>
-      <c r="M62" s="335">
+      <c r="M62" s="264">
         <f>AV46</f>
         <v>0</v>
       </c>
-      <c r="N62" s="335"/>
-      <c r="O62" s="335"/>
-      <c r="P62" s="335"/>
+      <c r="N62" s="264"/>
+      <c r="O62" s="264"/>
+      <c r="P62" s="264"/>
       <c r="Q62" s="1"/>
       <c r="R62" s="6" t="s">
         <v>73</v>
@@ -10162,25 +10197,25 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
       <c r="AA62" s="1"/>
-      <c r="AB62" s="318" t="e">
+      <c r="AB62" s="272" t="e">
         <f>VLOOKUP(AX3,'Multi Seleção'!I3:J21,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AC62" s="318"/>
-      <c r="AD62" s="318"/>
-      <c r="AE62" s="318"/>
-      <c r="AF62" s="318"/>
-      <c r="AG62" s="318"/>
+      <c r="AC62" s="272"/>
+      <c r="AD62" s="272"/>
+      <c r="AE62" s="272"/>
+      <c r="AF62" s="272"/>
+      <c r="AG62" s="272"/>
       <c r="AH62" s="1"/>
       <c r="AI62" s="1"/>
-      <c r="AJ62" s="343" t="s">
+      <c r="AJ62" s="273" t="s">
         <v>74</v>
       </c>
-      <c r="AK62" s="343"/>
-      <c r="AL62" s="343"/>
-      <c r="AM62" s="343"/>
-      <c r="AN62" s="343"/>
-      <c r="AO62" s="343"/>
+      <c r="AK62" s="273"/>
+      <c r="AL62" s="273"/>
+      <c r="AM62" s="273"/>
+      <c r="AN62" s="273"/>
+      <c r="AO62" s="273"/>
       <c r="AP62" s="1"/>
       <c r="AQ62" s="87"/>
       <c r="AR62" s="75"/>
@@ -10213,10 +10248,10 @@
       <c r="J63" s="1"/>
       <c r="K63" s="86"/>
       <c r="L63" s="1"/>
-      <c r="M63" s="335"/>
-      <c r="N63" s="335"/>
-      <c r="O63" s="335"/>
-      <c r="P63" s="335"/>
+      <c r="M63" s="264"/>
+      <c r="N63" s="264"/>
+      <c r="O63" s="264"/>
+      <c r="P63" s="264"/>
       <c r="Q63" s="1"/>
       <c r="R63" s="6" t="s">
         <v>76</v>
@@ -10240,16 +10275,16 @@
       <c r="AF63" s="1"/>
       <c r="AG63" s="16"/>
       <c r="AH63" s="6"/>
-      <c r="AI63" s="336" t="s">
+      <c r="AI63" s="265" t="s">
         <v>77</v>
       </c>
-      <c r="AJ63" s="336"/>
-      <c r="AK63" s="336"/>
-      <c r="AL63" s="336"/>
-      <c r="AM63" s="336"/>
-      <c r="AN63" s="336"/>
-      <c r="AO63" s="336"/>
-      <c r="AP63" s="336"/>
+      <c r="AJ63" s="265"/>
+      <c r="AK63" s="265"/>
+      <c r="AL63" s="265"/>
+      <c r="AM63" s="265"/>
+      <c r="AN63" s="265"/>
+      <c r="AO63" s="265"/>
+      <c r="AP63" s="265"/>
       <c r="AQ63" s="89"/>
       <c r="AR63" s="1"/>
       <c r="AS63" s="2"/>
@@ -10302,14 +10337,14 @@
       <c r="AG64" s="1"/>
       <c r="AH64" s="1"/>
       <c r="AI64" s="1"/>
-      <c r="AJ64" s="337" t="s">
+      <c r="AJ64" s="266" t="s">
         <v>78</v>
       </c>
-      <c r="AK64" s="337"/>
-      <c r="AL64" s="337"/>
-      <c r="AM64" s="337"/>
-      <c r="AN64" s="337"/>
-      <c r="AO64" s="337"/>
+      <c r="AK64" s="266"/>
+      <c r="AL64" s="266"/>
+      <c r="AM64" s="266"/>
+      <c r="AN64" s="266"/>
+      <c r="AO64" s="266"/>
       <c r="AP64" s="1"/>
       <c r="AQ64" s="91"/>
       <c r="AR64" s="87"/>
@@ -10389,50 +10424,50 @@
       <c r="BE65" s="1"/>
     </row>
     <row r="66" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="338" t="s">
+      <c r="A66" s="267" t="s">
         <v>80</v>
       </c>
-      <c r="B66" s="338"/>
-      <c r="C66" s="338"/>
-      <c r="D66" s="338"/>
-      <c r="E66" s="338"/>
-      <c r="F66" s="338"/>
-      <c r="G66" s="338"/>
-      <c r="H66" s="338"/>
-      <c r="I66" s="338"/>
-      <c r="J66" s="338"/>
-      <c r="K66" s="338"/>
-      <c r="L66" s="338"/>
-      <c r="M66" s="338"/>
-      <c r="N66" s="338"/>
-      <c r="O66" s="338"/>
-      <c r="P66" s="338"/>
-      <c r="Q66" s="338"/>
-      <c r="R66" s="338"/>
-      <c r="S66" s="338"/>
-      <c r="T66" s="338"/>
-      <c r="U66" s="338"/>
-      <c r="V66" s="338"/>
-      <c r="W66" s="338"/>
-      <c r="X66" s="338"/>
-      <c r="Y66" s="338"/>
-      <c r="Z66" s="338"/>
-      <c r="AA66" s="338"/>
-      <c r="AB66" s="338"/>
-      <c r="AC66" s="338"/>
-      <c r="AD66" s="338"/>
-      <c r="AE66" s="338"/>
-      <c r="AF66" s="338"/>
-      <c r="AG66" s="338"/>
-      <c r="AH66" s="338"/>
-      <c r="AI66" s="338"/>
-      <c r="AJ66" s="338"/>
-      <c r="AK66" s="338"/>
-      <c r="AL66" s="338"/>
-      <c r="AM66" s="338"/>
-      <c r="AN66" s="338"/>
-      <c r="AO66" s="338"/>
-      <c r="AP66" s="338"/>
+      <c r="B66" s="267"/>
+      <c r="C66" s="267"/>
+      <c r="D66" s="267"/>
+      <c r="E66" s="267"/>
+      <c r="F66" s="267"/>
+      <c r="G66" s="267"/>
+      <c r="H66" s="267"/>
+      <c r="I66" s="267"/>
+      <c r="J66" s="267"/>
+      <c r="K66" s="267"/>
+      <c r="L66" s="267"/>
+      <c r="M66" s="267"/>
+      <c r="N66" s="267"/>
+      <c r="O66" s="267"/>
+      <c r="P66" s="267"/>
+      <c r="Q66" s="267"/>
+      <c r="R66" s="267"/>
+      <c r="S66" s="267"/>
+      <c r="T66" s="267"/>
+      <c r="U66" s="267"/>
+      <c r="V66" s="267"/>
+      <c r="W66" s="267"/>
+      <c r="X66" s="267"/>
+      <c r="Y66" s="267"/>
+      <c r="Z66" s="267"/>
+      <c r="AA66" s="267"/>
+      <c r="AB66" s="267"/>
+      <c r="AC66" s="267"/>
+      <c r="AD66" s="267"/>
+      <c r="AE66" s="267"/>
+      <c r="AF66" s="267"/>
+      <c r="AG66" s="267"/>
+      <c r="AH66" s="267"/>
+      <c r="AI66" s="267"/>
+      <c r="AJ66" s="267"/>
+      <c r="AK66" s="267"/>
+      <c r="AL66" s="267"/>
+      <c r="AM66" s="267"/>
+      <c r="AN66" s="267"/>
+      <c r="AO66" s="267"/>
+      <c r="AP66" s="267"/>
       <c r="AQ66" s="96"/>
       <c r="AR66" s="91"/>
       <c r="AS66" s="2"/>
@@ -10450,48 +10485,48 @@
       <c r="BE66" s="1"/>
     </row>
     <row r="67" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A67" s="338"/>
-      <c r="B67" s="338"/>
-      <c r="C67" s="338"/>
-      <c r="D67" s="338"/>
-      <c r="E67" s="338"/>
-      <c r="F67" s="338"/>
-      <c r="G67" s="338"/>
-      <c r="H67" s="338"/>
-      <c r="I67" s="338"/>
-      <c r="J67" s="338"/>
-      <c r="K67" s="338"/>
-      <c r="L67" s="338"/>
-      <c r="M67" s="338"/>
-      <c r="N67" s="338"/>
-      <c r="O67" s="338"/>
-      <c r="P67" s="338"/>
-      <c r="Q67" s="338"/>
-      <c r="R67" s="338"/>
-      <c r="S67" s="338"/>
-      <c r="T67" s="338"/>
-      <c r="U67" s="338"/>
-      <c r="V67" s="338"/>
-      <c r="W67" s="338"/>
-      <c r="X67" s="338"/>
-      <c r="Y67" s="338"/>
-      <c r="Z67" s="338"/>
-      <c r="AA67" s="338"/>
-      <c r="AB67" s="338"/>
-      <c r="AC67" s="338"/>
-      <c r="AD67" s="338"/>
-      <c r="AE67" s="338"/>
-      <c r="AF67" s="338"/>
-      <c r="AG67" s="338"/>
-      <c r="AH67" s="338"/>
-      <c r="AI67" s="338"/>
-      <c r="AJ67" s="338"/>
-      <c r="AK67" s="338"/>
-      <c r="AL67" s="338"/>
-      <c r="AM67" s="338"/>
-      <c r="AN67" s="338"/>
-      <c r="AO67" s="338"/>
-      <c r="AP67" s="338"/>
+      <c r="A67" s="267"/>
+      <c r="B67" s="267"/>
+      <c r="C67" s="267"/>
+      <c r="D67" s="267"/>
+      <c r="E67" s="267"/>
+      <c r="F67" s="267"/>
+      <c r="G67" s="267"/>
+      <c r="H67" s="267"/>
+      <c r="I67" s="267"/>
+      <c r="J67" s="267"/>
+      <c r="K67" s="267"/>
+      <c r="L67" s="267"/>
+      <c r="M67" s="267"/>
+      <c r="N67" s="267"/>
+      <c r="O67" s="267"/>
+      <c r="P67" s="267"/>
+      <c r="Q67" s="267"/>
+      <c r="R67" s="267"/>
+      <c r="S67" s="267"/>
+      <c r="T67" s="267"/>
+      <c r="U67" s="267"/>
+      <c r="V67" s="267"/>
+      <c r="W67" s="267"/>
+      <c r="X67" s="267"/>
+      <c r="Y67" s="267"/>
+      <c r="Z67" s="267"/>
+      <c r="AA67" s="267"/>
+      <c r="AB67" s="267"/>
+      <c r="AC67" s="267"/>
+      <c r="AD67" s="267"/>
+      <c r="AE67" s="267"/>
+      <c r="AF67" s="267"/>
+      <c r="AG67" s="267"/>
+      <c r="AH67" s="267"/>
+      <c r="AI67" s="267"/>
+      <c r="AJ67" s="267"/>
+      <c r="AK67" s="267"/>
+      <c r="AL67" s="267"/>
+      <c r="AM67" s="267"/>
+      <c r="AN67" s="267"/>
+      <c r="AO67" s="267"/>
+      <c r="AP67" s="267"/>
       <c r="AQ67" s="96"/>
       <c r="AR67" s="1"/>
       <c r="AS67" s="2"/>
@@ -10509,48 +10544,48 @@
       <c r="BE67" s="1"/>
     </row>
     <row r="68" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A68" s="338"/>
-      <c r="B68" s="338"/>
-      <c r="C68" s="338"/>
-      <c r="D68" s="338"/>
-      <c r="E68" s="338"/>
-      <c r="F68" s="338"/>
-      <c r="G68" s="338"/>
-      <c r="H68" s="338"/>
-      <c r="I68" s="338"/>
-      <c r="J68" s="338"/>
-      <c r="K68" s="338"/>
-      <c r="L68" s="338"/>
-      <c r="M68" s="338"/>
-      <c r="N68" s="338"/>
-      <c r="O68" s="338"/>
-      <c r="P68" s="338"/>
-      <c r="Q68" s="338"/>
-      <c r="R68" s="338"/>
-      <c r="S68" s="338"/>
-      <c r="T68" s="338"/>
-      <c r="U68" s="338"/>
-      <c r="V68" s="338"/>
-      <c r="W68" s="338"/>
-      <c r="X68" s="338"/>
-      <c r="Y68" s="338"/>
-      <c r="Z68" s="338"/>
-      <c r="AA68" s="338"/>
-      <c r="AB68" s="338"/>
-      <c r="AC68" s="338"/>
-      <c r="AD68" s="338"/>
-      <c r="AE68" s="338"/>
-      <c r="AF68" s="338"/>
-      <c r="AG68" s="338"/>
-      <c r="AH68" s="338"/>
-      <c r="AI68" s="338"/>
-      <c r="AJ68" s="338"/>
-      <c r="AK68" s="338"/>
-      <c r="AL68" s="338"/>
-      <c r="AM68" s="338"/>
-      <c r="AN68" s="338"/>
-      <c r="AO68" s="338"/>
-      <c r="AP68" s="338"/>
+      <c r="A68" s="267"/>
+      <c r="B68" s="267"/>
+      <c r="C68" s="267"/>
+      <c r="D68" s="267"/>
+      <c r="E68" s="267"/>
+      <c r="F68" s="267"/>
+      <c r="G68" s="267"/>
+      <c r="H68" s="267"/>
+      <c r="I68" s="267"/>
+      <c r="J68" s="267"/>
+      <c r="K68" s="267"/>
+      <c r="L68" s="267"/>
+      <c r="M68" s="267"/>
+      <c r="N68" s="267"/>
+      <c r="O68" s="267"/>
+      <c r="P68" s="267"/>
+      <c r="Q68" s="267"/>
+      <c r="R68" s="267"/>
+      <c r="S68" s="267"/>
+      <c r="T68" s="267"/>
+      <c r="U68" s="267"/>
+      <c r="V68" s="267"/>
+      <c r="W68" s="267"/>
+      <c r="X68" s="267"/>
+      <c r="Y68" s="267"/>
+      <c r="Z68" s="267"/>
+      <c r="AA68" s="267"/>
+      <c r="AB68" s="267"/>
+      <c r="AC68" s="267"/>
+      <c r="AD68" s="267"/>
+      <c r="AE68" s="267"/>
+      <c r="AF68" s="267"/>
+      <c r="AG68" s="267"/>
+      <c r="AH68" s="267"/>
+      <c r="AI68" s="267"/>
+      <c r="AJ68" s="267"/>
+      <c r="AK68" s="267"/>
+      <c r="AL68" s="267"/>
+      <c r="AM68" s="267"/>
+      <c r="AN68" s="267"/>
+      <c r="AO68" s="267"/>
+      <c r="AP68" s="267"/>
       <c r="AQ68" s="96"/>
       <c r="AR68" s="96"/>
       <c r="AS68" s="2"/>
@@ -10632,50 +10667,50 @@
       <c r="BE69" s="1"/>
     </row>
     <row r="70" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A70" s="339" t="s">
+      <c r="A70" s="268" t="s">
         <v>82</v>
       </c>
-      <c r="B70" s="339"/>
-      <c r="C70" s="339"/>
-      <c r="D70" s="339"/>
-      <c r="E70" s="339"/>
-      <c r="F70" s="339"/>
-      <c r="G70" s="339"/>
-      <c r="H70" s="339"/>
-      <c r="I70" s="339"/>
-      <c r="J70" s="339"/>
-      <c r="K70" s="339"/>
-      <c r="L70" s="339"/>
-      <c r="M70" s="339"/>
-      <c r="N70" s="339"/>
-      <c r="O70" s="339"/>
-      <c r="P70" s="339"/>
-      <c r="Q70" s="339"/>
-      <c r="R70" s="339"/>
-      <c r="S70" s="339"/>
-      <c r="T70" s="339"/>
-      <c r="U70" s="339"/>
-      <c r="V70" s="339"/>
-      <c r="W70" s="339"/>
-      <c r="X70" s="339"/>
-      <c r="Y70" s="339"/>
-      <c r="Z70" s="339"/>
-      <c r="AA70" s="339"/>
-      <c r="AB70" s="339"/>
-      <c r="AC70" s="339"/>
-      <c r="AD70" s="339"/>
-      <c r="AE70" s="339"/>
-      <c r="AF70" s="339"/>
-      <c r="AG70" s="339"/>
-      <c r="AH70" s="339"/>
-      <c r="AI70" s="339"/>
-      <c r="AJ70" s="339"/>
-      <c r="AK70" s="339"/>
-      <c r="AL70" s="339"/>
-      <c r="AM70" s="339"/>
-      <c r="AN70" s="339"/>
-      <c r="AO70" s="339"/>
-      <c r="AP70" s="339"/>
+      <c r="B70" s="268"/>
+      <c r="C70" s="268"/>
+      <c r="D70" s="268"/>
+      <c r="E70" s="268"/>
+      <c r="F70" s="268"/>
+      <c r="G70" s="268"/>
+      <c r="H70" s="268"/>
+      <c r="I70" s="268"/>
+      <c r="J70" s="268"/>
+      <c r="K70" s="268"/>
+      <c r="L70" s="268"/>
+      <c r="M70" s="268"/>
+      <c r="N70" s="268"/>
+      <c r="O70" s="268"/>
+      <c r="P70" s="268"/>
+      <c r="Q70" s="268"/>
+      <c r="R70" s="268"/>
+      <c r="S70" s="268"/>
+      <c r="T70" s="268"/>
+      <c r="U70" s="268"/>
+      <c r="V70" s="268"/>
+      <c r="W70" s="268"/>
+      <c r="X70" s="268"/>
+      <c r="Y70" s="268"/>
+      <c r="Z70" s="268"/>
+      <c r="AA70" s="268"/>
+      <c r="AB70" s="268"/>
+      <c r="AC70" s="268"/>
+      <c r="AD70" s="268"/>
+      <c r="AE70" s="268"/>
+      <c r="AF70" s="268"/>
+      <c r="AG70" s="268"/>
+      <c r="AH70" s="268"/>
+      <c r="AI70" s="268"/>
+      <c r="AJ70" s="268"/>
+      <c r="AK70" s="268"/>
+      <c r="AL70" s="268"/>
+      <c r="AM70" s="268"/>
+      <c r="AN70" s="268"/>
+      <c r="AO70" s="268"/>
+      <c r="AP70" s="268"/>
       <c r="AQ70" s="98"/>
       <c r="AR70" s="96"/>
       <c r="AS70" s="1"/>
@@ -10693,48 +10728,48 @@
       <c r="BE70" s="1"/>
     </row>
     <row r="71" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A71" s="339"/>
-      <c r="B71" s="339"/>
-      <c r="C71" s="339"/>
-      <c r="D71" s="339"/>
-      <c r="E71" s="339"/>
-      <c r="F71" s="339"/>
-      <c r="G71" s="339"/>
-      <c r="H71" s="339"/>
-      <c r="I71" s="339"/>
-      <c r="J71" s="339"/>
-      <c r="K71" s="339"/>
-      <c r="L71" s="339"/>
-      <c r="M71" s="339"/>
-      <c r="N71" s="339"/>
-      <c r="O71" s="339"/>
-      <c r="P71" s="339"/>
-      <c r="Q71" s="339"/>
-      <c r="R71" s="339"/>
-      <c r="S71" s="339"/>
-      <c r="T71" s="339"/>
-      <c r="U71" s="339"/>
-      <c r="V71" s="339"/>
-      <c r="W71" s="339"/>
-      <c r="X71" s="339"/>
-      <c r="Y71" s="339"/>
-      <c r="Z71" s="339"/>
-      <c r="AA71" s="339"/>
-      <c r="AB71" s="339"/>
-      <c r="AC71" s="339"/>
-      <c r="AD71" s="339"/>
-      <c r="AE71" s="339"/>
-      <c r="AF71" s="339"/>
-      <c r="AG71" s="339"/>
-      <c r="AH71" s="339"/>
-      <c r="AI71" s="339"/>
-      <c r="AJ71" s="339"/>
-      <c r="AK71" s="339"/>
-      <c r="AL71" s="339"/>
-      <c r="AM71" s="339"/>
-      <c r="AN71" s="339"/>
-      <c r="AO71" s="339"/>
-      <c r="AP71" s="339"/>
+      <c r="A71" s="268"/>
+      <c r="B71" s="268"/>
+      <c r="C71" s="268"/>
+      <c r="D71" s="268"/>
+      <c r="E71" s="268"/>
+      <c r="F71" s="268"/>
+      <c r="G71" s="268"/>
+      <c r="H71" s="268"/>
+      <c r="I71" s="268"/>
+      <c r="J71" s="268"/>
+      <c r="K71" s="268"/>
+      <c r="L71" s="268"/>
+      <c r="M71" s="268"/>
+      <c r="N71" s="268"/>
+      <c r="O71" s="268"/>
+      <c r="P71" s="268"/>
+      <c r="Q71" s="268"/>
+      <c r="R71" s="268"/>
+      <c r="S71" s="268"/>
+      <c r="T71" s="268"/>
+      <c r="U71" s="268"/>
+      <c r="V71" s="268"/>
+      <c r="W71" s="268"/>
+      <c r="X71" s="268"/>
+      <c r="Y71" s="268"/>
+      <c r="Z71" s="268"/>
+      <c r="AA71" s="268"/>
+      <c r="AB71" s="268"/>
+      <c r="AC71" s="268"/>
+      <c r="AD71" s="268"/>
+      <c r="AE71" s="268"/>
+      <c r="AF71" s="268"/>
+      <c r="AG71" s="268"/>
+      <c r="AH71" s="268"/>
+      <c r="AI71" s="268"/>
+      <c r="AJ71" s="268"/>
+      <c r="AK71" s="268"/>
+      <c r="AL71" s="268"/>
+      <c r="AM71" s="268"/>
+      <c r="AN71" s="268"/>
+      <c r="AO71" s="268"/>
+      <c r="AP71" s="268"/>
       <c r="AQ71" s="98"/>
       <c r="AR71" s="6"/>
       <c r="AS71" s="1"/>
@@ -10752,48 +10787,48 @@
       <c r="BE71" s="1"/>
     </row>
     <row r="72" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A72" s="339"/>
-      <c r="B72" s="339"/>
-      <c r="C72" s="339"/>
-      <c r="D72" s="339"/>
-      <c r="E72" s="339"/>
-      <c r="F72" s="339"/>
-      <c r="G72" s="339"/>
-      <c r="H72" s="339"/>
-      <c r="I72" s="339"/>
-      <c r="J72" s="339"/>
-      <c r="K72" s="339"/>
-      <c r="L72" s="339"/>
-      <c r="M72" s="339"/>
-      <c r="N72" s="339"/>
-      <c r="O72" s="339"/>
-      <c r="P72" s="339"/>
-      <c r="Q72" s="339"/>
-      <c r="R72" s="339"/>
-      <c r="S72" s="339"/>
-      <c r="T72" s="339"/>
-      <c r="U72" s="339"/>
-      <c r="V72" s="339"/>
-      <c r="W72" s="339"/>
-      <c r="X72" s="339"/>
-      <c r="Y72" s="339"/>
-      <c r="Z72" s="339"/>
-      <c r="AA72" s="339"/>
-      <c r="AB72" s="339"/>
-      <c r="AC72" s="339"/>
-      <c r="AD72" s="339"/>
-      <c r="AE72" s="339"/>
-      <c r="AF72" s="339"/>
-      <c r="AG72" s="339"/>
-      <c r="AH72" s="339"/>
-      <c r="AI72" s="339"/>
-      <c r="AJ72" s="339"/>
-      <c r="AK72" s="339"/>
-      <c r="AL72" s="339"/>
-      <c r="AM72" s="339"/>
-      <c r="AN72" s="339"/>
-      <c r="AO72" s="339"/>
-      <c r="AP72" s="339"/>
+      <c r="A72" s="268"/>
+      <c r="B72" s="268"/>
+      <c r="C72" s="268"/>
+      <c r="D72" s="268"/>
+      <c r="E72" s="268"/>
+      <c r="F72" s="268"/>
+      <c r="G72" s="268"/>
+      <c r="H72" s="268"/>
+      <c r="I72" s="268"/>
+      <c r="J72" s="268"/>
+      <c r="K72" s="268"/>
+      <c r="L72" s="268"/>
+      <c r="M72" s="268"/>
+      <c r="N72" s="268"/>
+      <c r="O72" s="268"/>
+      <c r="P72" s="268"/>
+      <c r="Q72" s="268"/>
+      <c r="R72" s="268"/>
+      <c r="S72" s="268"/>
+      <c r="T72" s="268"/>
+      <c r="U72" s="268"/>
+      <c r="V72" s="268"/>
+      <c r="W72" s="268"/>
+      <c r="X72" s="268"/>
+      <c r="Y72" s="268"/>
+      <c r="Z72" s="268"/>
+      <c r="AA72" s="268"/>
+      <c r="AB72" s="268"/>
+      <c r="AC72" s="268"/>
+      <c r="AD72" s="268"/>
+      <c r="AE72" s="268"/>
+      <c r="AF72" s="268"/>
+      <c r="AG72" s="268"/>
+      <c r="AH72" s="268"/>
+      <c r="AI72" s="268"/>
+      <c r="AJ72" s="268"/>
+      <c r="AK72" s="268"/>
+      <c r="AL72" s="268"/>
+      <c r="AM72" s="268"/>
+      <c r="AN72" s="268"/>
+      <c r="AO72" s="268"/>
+      <c r="AP72" s="268"/>
       <c r="AQ72" s="98"/>
       <c r="AR72" s="98"/>
       <c r="AS72" s="1"/>
@@ -10811,48 +10846,48 @@
       <c r="BE72" s="1"/>
     </row>
     <row r="73" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A73" s="339"/>
-      <c r="B73" s="339"/>
-      <c r="C73" s="339"/>
-      <c r="D73" s="339"/>
-      <c r="E73" s="339"/>
-      <c r="F73" s="339"/>
-      <c r="G73" s="339"/>
-      <c r="H73" s="339"/>
-      <c r="I73" s="339"/>
-      <c r="J73" s="339"/>
-      <c r="K73" s="339"/>
-      <c r="L73" s="339"/>
-      <c r="M73" s="339"/>
-      <c r="N73" s="339"/>
-      <c r="O73" s="339"/>
-      <c r="P73" s="339"/>
-      <c r="Q73" s="339"/>
-      <c r="R73" s="339"/>
-      <c r="S73" s="339"/>
-      <c r="T73" s="339"/>
-      <c r="U73" s="339"/>
-      <c r="V73" s="339"/>
-      <c r="W73" s="339"/>
-      <c r="X73" s="339"/>
-      <c r="Y73" s="339"/>
-      <c r="Z73" s="339"/>
-      <c r="AA73" s="339"/>
-      <c r="AB73" s="339"/>
-      <c r="AC73" s="339"/>
-      <c r="AD73" s="339"/>
-      <c r="AE73" s="339"/>
-      <c r="AF73" s="339"/>
-      <c r="AG73" s="339"/>
-      <c r="AH73" s="339"/>
-      <c r="AI73" s="339"/>
-      <c r="AJ73" s="339"/>
-      <c r="AK73" s="339"/>
-      <c r="AL73" s="339"/>
-      <c r="AM73" s="339"/>
-      <c r="AN73" s="339"/>
-      <c r="AO73" s="339"/>
-      <c r="AP73" s="339"/>
+      <c r="A73" s="268"/>
+      <c r="B73" s="268"/>
+      <c r="C73" s="268"/>
+      <c r="D73" s="268"/>
+      <c r="E73" s="268"/>
+      <c r="F73" s="268"/>
+      <c r="G73" s="268"/>
+      <c r="H73" s="268"/>
+      <c r="I73" s="268"/>
+      <c r="J73" s="268"/>
+      <c r="K73" s="268"/>
+      <c r="L73" s="268"/>
+      <c r="M73" s="268"/>
+      <c r="N73" s="268"/>
+      <c r="O73" s="268"/>
+      <c r="P73" s="268"/>
+      <c r="Q73" s="268"/>
+      <c r="R73" s="268"/>
+      <c r="S73" s="268"/>
+      <c r="T73" s="268"/>
+      <c r="U73" s="268"/>
+      <c r="V73" s="268"/>
+      <c r="W73" s="268"/>
+      <c r="X73" s="268"/>
+      <c r="Y73" s="268"/>
+      <c r="Z73" s="268"/>
+      <c r="AA73" s="268"/>
+      <c r="AB73" s="268"/>
+      <c r="AC73" s="268"/>
+      <c r="AD73" s="268"/>
+      <c r="AE73" s="268"/>
+      <c r="AF73" s="268"/>
+      <c r="AG73" s="268"/>
+      <c r="AH73" s="268"/>
+      <c r="AI73" s="268"/>
+      <c r="AJ73" s="268"/>
+      <c r="AK73" s="268"/>
+      <c r="AL73" s="268"/>
+      <c r="AM73" s="268"/>
+      <c r="AN73" s="268"/>
+      <c r="AO73" s="268"/>
+      <c r="AP73" s="268"/>
       <c r="AQ73" s="98"/>
       <c r="AR73" s="98"/>
       <c r="AS73" s="1"/>
@@ -10870,48 +10905,48 @@
       <c r="BE73" s="1"/>
     </row>
     <row r="74" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A74" s="339"/>
-      <c r="B74" s="339"/>
-      <c r="C74" s="339"/>
-      <c r="D74" s="339"/>
-      <c r="E74" s="339"/>
-      <c r="F74" s="339"/>
-      <c r="G74" s="339"/>
-      <c r="H74" s="339"/>
-      <c r="I74" s="339"/>
-      <c r="J74" s="339"/>
-      <c r="K74" s="339"/>
-      <c r="L74" s="339"/>
-      <c r="M74" s="339"/>
-      <c r="N74" s="339"/>
-      <c r="O74" s="339"/>
-      <c r="P74" s="339"/>
-      <c r="Q74" s="339"/>
-      <c r="R74" s="339"/>
-      <c r="S74" s="339"/>
-      <c r="T74" s="339"/>
-      <c r="U74" s="339"/>
-      <c r="V74" s="339"/>
-      <c r="W74" s="339"/>
-      <c r="X74" s="339"/>
-      <c r="Y74" s="339"/>
-      <c r="Z74" s="339"/>
-      <c r="AA74" s="339"/>
-      <c r="AB74" s="339"/>
-      <c r="AC74" s="339"/>
-      <c r="AD74" s="339"/>
-      <c r="AE74" s="339"/>
-      <c r="AF74" s="339"/>
-      <c r="AG74" s="339"/>
-      <c r="AH74" s="339"/>
-      <c r="AI74" s="339"/>
-      <c r="AJ74" s="339"/>
-      <c r="AK74" s="339"/>
-      <c r="AL74" s="339"/>
-      <c r="AM74" s="339"/>
-      <c r="AN74" s="339"/>
-      <c r="AO74" s="339"/>
-      <c r="AP74" s="339"/>
+      <c r="A74" s="268"/>
+      <c r="B74" s="268"/>
+      <c r="C74" s="268"/>
+      <c r="D74" s="268"/>
+      <c r="E74" s="268"/>
+      <c r="F74" s="268"/>
+      <c r="G74" s="268"/>
+      <c r="H74" s="268"/>
+      <c r="I74" s="268"/>
+      <c r="J74" s="268"/>
+      <c r="K74" s="268"/>
+      <c r="L74" s="268"/>
+      <c r="M74" s="268"/>
+      <c r="N74" s="268"/>
+      <c r="O74" s="268"/>
+      <c r="P74" s="268"/>
+      <c r="Q74" s="268"/>
+      <c r="R74" s="268"/>
+      <c r="S74" s="268"/>
+      <c r="T74" s="268"/>
+      <c r="U74" s="268"/>
+      <c r="V74" s="268"/>
+      <c r="W74" s="268"/>
+      <c r="X74" s="268"/>
+      <c r="Y74" s="268"/>
+      <c r="Z74" s="268"/>
+      <c r="AA74" s="268"/>
+      <c r="AB74" s="268"/>
+      <c r="AC74" s="268"/>
+      <c r="AD74" s="268"/>
+      <c r="AE74" s="268"/>
+      <c r="AF74" s="268"/>
+      <c r="AG74" s="268"/>
+      <c r="AH74" s="268"/>
+      <c r="AI74" s="268"/>
+      <c r="AJ74" s="268"/>
+      <c r="AK74" s="268"/>
+      <c r="AL74" s="268"/>
+      <c r="AM74" s="268"/>
+      <c r="AN74" s="268"/>
+      <c r="AO74" s="268"/>
+      <c r="AP74" s="268"/>
       <c r="AQ74" s="98"/>
       <c r="AR74" s="98"/>
       <c r="AS74" s="2"/>
@@ -10929,48 +10964,48 @@
       <c r="BE74" s="1"/>
     </row>
     <row r="75" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A75" s="339"/>
-      <c r="B75" s="339"/>
-      <c r="C75" s="339"/>
-      <c r="D75" s="339"/>
-      <c r="E75" s="339"/>
-      <c r="F75" s="339"/>
-      <c r="G75" s="339"/>
-      <c r="H75" s="339"/>
-      <c r="I75" s="339"/>
-      <c r="J75" s="339"/>
-      <c r="K75" s="339"/>
-      <c r="L75" s="339"/>
-      <c r="M75" s="339"/>
-      <c r="N75" s="339"/>
-      <c r="O75" s="339"/>
-      <c r="P75" s="339"/>
-      <c r="Q75" s="339"/>
-      <c r="R75" s="339"/>
-      <c r="S75" s="339"/>
-      <c r="T75" s="339"/>
-      <c r="U75" s="339"/>
-      <c r="V75" s="339"/>
-      <c r="W75" s="339"/>
-      <c r="X75" s="339"/>
-      <c r="Y75" s="339"/>
-      <c r="Z75" s="339"/>
-      <c r="AA75" s="339"/>
-      <c r="AB75" s="339"/>
-      <c r="AC75" s="339"/>
-      <c r="AD75" s="339"/>
-      <c r="AE75" s="339"/>
-      <c r="AF75" s="339"/>
-      <c r="AG75" s="339"/>
-      <c r="AH75" s="339"/>
-      <c r="AI75" s="339"/>
-      <c r="AJ75" s="339"/>
-      <c r="AK75" s="339"/>
-      <c r="AL75" s="339"/>
-      <c r="AM75" s="339"/>
-      <c r="AN75" s="339"/>
-      <c r="AO75" s="339"/>
-      <c r="AP75" s="339"/>
+      <c r="A75" s="268"/>
+      <c r="B75" s="268"/>
+      <c r="C75" s="268"/>
+      <c r="D75" s="268"/>
+      <c r="E75" s="268"/>
+      <c r="F75" s="268"/>
+      <c r="G75" s="268"/>
+      <c r="H75" s="268"/>
+      <c r="I75" s="268"/>
+      <c r="J75" s="268"/>
+      <c r="K75" s="268"/>
+      <c r="L75" s="268"/>
+      <c r="M75" s="268"/>
+      <c r="N75" s="268"/>
+      <c r="O75" s="268"/>
+      <c r="P75" s="268"/>
+      <c r="Q75" s="268"/>
+      <c r="R75" s="268"/>
+      <c r="S75" s="268"/>
+      <c r="T75" s="268"/>
+      <c r="U75" s="268"/>
+      <c r="V75" s="268"/>
+      <c r="W75" s="268"/>
+      <c r="X75" s="268"/>
+      <c r="Y75" s="268"/>
+      <c r="Z75" s="268"/>
+      <c r="AA75" s="268"/>
+      <c r="AB75" s="268"/>
+      <c r="AC75" s="268"/>
+      <c r="AD75" s="268"/>
+      <c r="AE75" s="268"/>
+      <c r="AF75" s="268"/>
+      <c r="AG75" s="268"/>
+      <c r="AH75" s="268"/>
+      <c r="AI75" s="268"/>
+      <c r="AJ75" s="268"/>
+      <c r="AK75" s="268"/>
+      <c r="AL75" s="268"/>
+      <c r="AM75" s="268"/>
+      <c r="AN75" s="268"/>
+      <c r="AO75" s="268"/>
+      <c r="AP75" s="268"/>
       <c r="AQ75" s="98"/>
       <c r="AR75" s="98"/>
       <c r="AS75" s="1"/>
@@ -10988,48 +11023,48 @@
       <c r="BE75" s="1"/>
     </row>
     <row r="76" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A76" s="339"/>
-      <c r="B76" s="339"/>
-      <c r="C76" s="339"/>
-      <c r="D76" s="339"/>
-      <c r="E76" s="339"/>
-      <c r="F76" s="339"/>
-      <c r="G76" s="339"/>
-      <c r="H76" s="339"/>
-      <c r="I76" s="339"/>
-      <c r="J76" s="339"/>
-      <c r="K76" s="339"/>
-      <c r="L76" s="339"/>
-      <c r="M76" s="339"/>
-      <c r="N76" s="339"/>
-      <c r="O76" s="339"/>
-      <c r="P76" s="339"/>
-      <c r="Q76" s="339"/>
-      <c r="R76" s="339"/>
-      <c r="S76" s="339"/>
-      <c r="T76" s="339"/>
-      <c r="U76" s="339"/>
-      <c r="V76" s="339"/>
-      <c r="W76" s="339"/>
-      <c r="X76" s="339"/>
-      <c r="Y76" s="339"/>
-      <c r="Z76" s="339"/>
-      <c r="AA76" s="339"/>
-      <c r="AB76" s="339"/>
-      <c r="AC76" s="339"/>
-      <c r="AD76" s="339"/>
-      <c r="AE76" s="339"/>
-      <c r="AF76" s="339"/>
-      <c r="AG76" s="339"/>
-      <c r="AH76" s="339"/>
-      <c r="AI76" s="339"/>
-      <c r="AJ76" s="339"/>
-      <c r="AK76" s="339"/>
-      <c r="AL76" s="339"/>
-      <c r="AM76" s="339"/>
-      <c r="AN76" s="339"/>
-      <c r="AO76" s="339"/>
-      <c r="AP76" s="339"/>
+      <c r="A76" s="268"/>
+      <c r="B76" s="268"/>
+      <c r="C76" s="268"/>
+      <c r="D76" s="268"/>
+      <c r="E76" s="268"/>
+      <c r="F76" s="268"/>
+      <c r="G76" s="268"/>
+      <c r="H76" s="268"/>
+      <c r="I76" s="268"/>
+      <c r="J76" s="268"/>
+      <c r="K76" s="268"/>
+      <c r="L76" s="268"/>
+      <c r="M76" s="268"/>
+      <c r="N76" s="268"/>
+      <c r="O76" s="268"/>
+      <c r="P76" s="268"/>
+      <c r="Q76" s="268"/>
+      <c r="R76" s="268"/>
+      <c r="S76" s="268"/>
+      <c r="T76" s="268"/>
+      <c r="U76" s="268"/>
+      <c r="V76" s="268"/>
+      <c r="W76" s="268"/>
+      <c r="X76" s="268"/>
+      <c r="Y76" s="268"/>
+      <c r="Z76" s="268"/>
+      <c r="AA76" s="268"/>
+      <c r="AB76" s="268"/>
+      <c r="AC76" s="268"/>
+      <c r="AD76" s="268"/>
+      <c r="AE76" s="268"/>
+      <c r="AF76" s="268"/>
+      <c r="AG76" s="268"/>
+      <c r="AH76" s="268"/>
+      <c r="AI76" s="268"/>
+      <c r="AJ76" s="268"/>
+      <c r="AK76" s="268"/>
+      <c r="AL76" s="268"/>
+      <c r="AM76" s="268"/>
+      <c r="AN76" s="268"/>
+      <c r="AO76" s="268"/>
+      <c r="AP76" s="268"/>
       <c r="AQ76" s="98"/>
       <c r="AR76" s="98"/>
       <c r="AS76" s="1"/>
@@ -11056,12 +11091,12 @@
       <c r="E77" s="2"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
-      <c r="H77" s="330">
+      <c r="H77" s="259">
         <f>AY16</f>
         <v>0</v>
       </c>
-      <c r="I77" s="330"/>
-      <c r="J77" s="330"/>
+      <c r="I77" s="259"/>
+      <c r="J77" s="259"/>
       <c r="K77" s="14" t="s">
         <v>84</v>
       </c>
@@ -11267,6 +11302,151 @@
     </row>
   </sheetData>
   <mergeCells count="169">
+    <mergeCell ref="AT4:AU4"/>
+    <mergeCell ref="AV4:AW4"/>
+    <mergeCell ref="AT5:AU5"/>
+    <mergeCell ref="AT6:AU6"/>
+    <mergeCell ref="AB2:AM2"/>
+    <mergeCell ref="AT1:AZ1"/>
+    <mergeCell ref="M2:S2"/>
+    <mergeCell ref="AN1:AQ1"/>
+    <mergeCell ref="AT3:AU3"/>
+    <mergeCell ref="AV5:AW5"/>
+    <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="P1:AK1"/>
+    <mergeCell ref="AA15:AC15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="W11:AI11"/>
+    <mergeCell ref="AT14:AU14"/>
+    <mergeCell ref="AV14:AW14"/>
+    <mergeCell ref="W12:AI12"/>
+    <mergeCell ref="AT15:AU15"/>
+    <mergeCell ref="AV15:AW15"/>
+    <mergeCell ref="AT7:AU7"/>
+    <mergeCell ref="AV11:AW11"/>
+    <mergeCell ref="AT12:AU12"/>
+    <mergeCell ref="AV12:AW12"/>
+    <mergeCell ref="W10:AI10"/>
+    <mergeCell ref="AT13:AU13"/>
+    <mergeCell ref="AV13:AW13"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AV9:AW9"/>
+    <mergeCell ref="W13:AH13"/>
+    <mergeCell ref="AT10:AU10"/>
+    <mergeCell ref="AV10:AW10"/>
+    <mergeCell ref="AV7:AW7"/>
+    <mergeCell ref="AT8:AU8"/>
+    <mergeCell ref="AV8:AW8"/>
+    <mergeCell ref="AT16:AU16"/>
+    <mergeCell ref="AT17:AU17"/>
+    <mergeCell ref="W16:AA16"/>
+    <mergeCell ref="AT21:AT22"/>
+    <mergeCell ref="AU21:AW21"/>
+    <mergeCell ref="AC21:AI21"/>
+    <mergeCell ref="AJ21:AM21"/>
+    <mergeCell ref="AN21:AO21"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="O22:U22"/>
+    <mergeCell ref="V22:AB22"/>
+    <mergeCell ref="AC22:AI22"/>
+    <mergeCell ref="AJ22:AP22"/>
+    <mergeCell ref="AX21:AX22"/>
+    <mergeCell ref="AY21:AY22"/>
+    <mergeCell ref="AZ21:BB22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="V21:AB21"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="H26:N26"/>
+    <mergeCell ref="O26:U26"/>
+    <mergeCell ref="V26:AB26"/>
+    <mergeCell ref="AC26:AI26"/>
+    <mergeCell ref="AJ26:AP26"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="H23:N23"/>
+    <mergeCell ref="O23:U23"/>
+    <mergeCell ref="V23:AB23"/>
+    <mergeCell ref="AC23:AI23"/>
+    <mergeCell ref="AJ23:AP23"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="H24:N24"/>
+    <mergeCell ref="O24:U24"/>
+    <mergeCell ref="V24:AB24"/>
+    <mergeCell ref="AC24:AI24"/>
+    <mergeCell ref="AJ24:AP24"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="H25:N25"/>
+    <mergeCell ref="O25:U25"/>
+    <mergeCell ref="V25:AB25"/>
+    <mergeCell ref="AC25:AI25"/>
+    <mergeCell ref="AJ25:AP25"/>
+    <mergeCell ref="AX29:AX30"/>
+    <mergeCell ref="AY29:AY30"/>
+    <mergeCell ref="AZ29:BB30"/>
+    <mergeCell ref="V29:AB29"/>
+    <mergeCell ref="AC29:AI29"/>
+    <mergeCell ref="AJ29:AM29"/>
+    <mergeCell ref="AN29:AO29"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="AT29:AT30"/>
+    <mergeCell ref="AU29:AW29"/>
+    <mergeCell ref="R29:T29"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="H31:N31"/>
+    <mergeCell ref="O31:U31"/>
+    <mergeCell ref="V31:AB31"/>
+    <mergeCell ref="AC31:AI31"/>
+    <mergeCell ref="AJ31:AP31"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="H30:N30"/>
+    <mergeCell ref="O30:U30"/>
+    <mergeCell ref="V30:AB30"/>
+    <mergeCell ref="AC30:AI30"/>
+    <mergeCell ref="AJ30:AP30"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="H33:N33"/>
+    <mergeCell ref="O33:U33"/>
+    <mergeCell ref="V33:AB33"/>
+    <mergeCell ref="AC33:AI33"/>
+    <mergeCell ref="AJ33:AP33"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="H32:N32"/>
+    <mergeCell ref="O32:U32"/>
+    <mergeCell ref="V32:AB32"/>
+    <mergeCell ref="AC32:AI32"/>
+    <mergeCell ref="AJ32:AP32"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="H34:N34"/>
+    <mergeCell ref="O34:U34"/>
+    <mergeCell ref="V34:AB34"/>
+    <mergeCell ref="AC34:AI34"/>
+    <mergeCell ref="AJ34:AP34"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="O35:Q35"/>
+    <mergeCell ref="AV48:AW48"/>
+    <mergeCell ref="G52:AQ53"/>
+    <mergeCell ref="A52:F53"/>
+    <mergeCell ref="A42:AP42"/>
+    <mergeCell ref="AT43:BD43"/>
+    <mergeCell ref="A44:AP44"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="O36:Q36"/>
+    <mergeCell ref="A38:AP38"/>
+    <mergeCell ref="AV39:AZ39"/>
+    <mergeCell ref="AV40:AW40"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="AV41:AW41"/>
     <mergeCell ref="H77:J77"/>
     <mergeCell ref="BF1:BO1"/>
     <mergeCell ref="AT44:BD44"/>
@@ -11291,151 +11471,6 @@
     <mergeCell ref="A46:AP46"/>
     <mergeCell ref="AV47:AW47"/>
     <mergeCell ref="A47:AP47"/>
-    <mergeCell ref="AV48:AW48"/>
-    <mergeCell ref="G52:AQ53"/>
-    <mergeCell ref="A52:F53"/>
-    <mergeCell ref="A42:AP42"/>
-    <mergeCell ref="AT43:BD43"/>
-    <mergeCell ref="A44:AP44"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="O36:Q36"/>
-    <mergeCell ref="A38:AP38"/>
-    <mergeCell ref="AV39:AZ39"/>
-    <mergeCell ref="AV40:AW40"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="AV41:AW41"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="H34:N34"/>
-    <mergeCell ref="O34:U34"/>
-    <mergeCell ref="V34:AB34"/>
-    <mergeCell ref="AC34:AI34"/>
-    <mergeCell ref="AJ34:AP34"/>
-    <mergeCell ref="A35:J35"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="O35:Q35"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="H33:N33"/>
-    <mergeCell ref="O33:U33"/>
-    <mergeCell ref="V33:AB33"/>
-    <mergeCell ref="AC33:AI33"/>
-    <mergeCell ref="AJ33:AP33"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="H32:N32"/>
-    <mergeCell ref="O32:U32"/>
-    <mergeCell ref="V32:AB32"/>
-    <mergeCell ref="AC32:AI32"/>
-    <mergeCell ref="AJ32:AP32"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="H31:N31"/>
-    <mergeCell ref="O31:U31"/>
-    <mergeCell ref="V31:AB31"/>
-    <mergeCell ref="AC31:AI31"/>
-    <mergeCell ref="AJ31:AP31"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="H30:N30"/>
-    <mergeCell ref="O30:U30"/>
-    <mergeCell ref="V30:AB30"/>
-    <mergeCell ref="AC30:AI30"/>
-    <mergeCell ref="AJ30:AP30"/>
-    <mergeCell ref="AX29:AX30"/>
-    <mergeCell ref="AY29:AY30"/>
-    <mergeCell ref="AZ29:BB30"/>
-    <mergeCell ref="V29:AB29"/>
-    <mergeCell ref="AC29:AI29"/>
-    <mergeCell ref="AJ29:AM29"/>
-    <mergeCell ref="AN29:AO29"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="AT29:AT30"/>
-    <mergeCell ref="AU29:AW29"/>
-    <mergeCell ref="R29:T29"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="H26:N26"/>
-    <mergeCell ref="O26:U26"/>
-    <mergeCell ref="V26:AB26"/>
-    <mergeCell ref="AC26:AI26"/>
-    <mergeCell ref="AJ26:AP26"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="H23:N23"/>
-    <mergeCell ref="O23:U23"/>
-    <mergeCell ref="V23:AB23"/>
-    <mergeCell ref="AC23:AI23"/>
-    <mergeCell ref="AJ23:AP23"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="H24:N24"/>
-    <mergeCell ref="O24:U24"/>
-    <mergeCell ref="V24:AB24"/>
-    <mergeCell ref="AC24:AI24"/>
-    <mergeCell ref="AJ24:AP24"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="H25:N25"/>
-    <mergeCell ref="O25:U25"/>
-    <mergeCell ref="V25:AB25"/>
-    <mergeCell ref="AC25:AI25"/>
-    <mergeCell ref="AJ25:AP25"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="O22:U22"/>
-    <mergeCell ref="V22:AB22"/>
-    <mergeCell ref="AC22:AI22"/>
-    <mergeCell ref="AJ22:AP22"/>
-    <mergeCell ref="AX21:AX22"/>
-    <mergeCell ref="AY21:AY22"/>
-    <mergeCell ref="AZ21:BB22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="V21:AB21"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="AT16:AU16"/>
-    <mergeCell ref="AT17:AU17"/>
-    <mergeCell ref="W16:AA16"/>
-    <mergeCell ref="AT21:AT22"/>
-    <mergeCell ref="AU21:AW21"/>
-    <mergeCell ref="AC21:AI21"/>
-    <mergeCell ref="AJ21:AM21"/>
-    <mergeCell ref="AN21:AO21"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="AA15:AC15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="W11:AI11"/>
-    <mergeCell ref="AT14:AU14"/>
-    <mergeCell ref="AV14:AW14"/>
-    <mergeCell ref="W12:AI12"/>
-    <mergeCell ref="AT15:AU15"/>
-    <mergeCell ref="AV15:AW15"/>
-    <mergeCell ref="AT7:AU7"/>
-    <mergeCell ref="AV11:AW11"/>
-    <mergeCell ref="AT12:AU12"/>
-    <mergeCell ref="AV12:AW12"/>
-    <mergeCell ref="W10:AI10"/>
-    <mergeCell ref="AT13:AU13"/>
-    <mergeCell ref="AV13:AW13"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="AV9:AW9"/>
-    <mergeCell ref="W13:AH13"/>
-    <mergeCell ref="AT10:AU10"/>
-    <mergeCell ref="AV10:AW10"/>
-    <mergeCell ref="AV7:AW7"/>
-    <mergeCell ref="AT8:AU8"/>
-    <mergeCell ref="AV8:AW8"/>
-    <mergeCell ref="AT4:AU4"/>
-    <mergeCell ref="AV4:AW4"/>
-    <mergeCell ref="AT5:AU5"/>
-    <mergeCell ref="AT6:AU6"/>
-    <mergeCell ref="AB2:AM2"/>
-    <mergeCell ref="AT1:AZ1"/>
-    <mergeCell ref="M2:S2"/>
-    <mergeCell ref="AN1:AQ1"/>
-    <mergeCell ref="AT3:AU3"/>
-    <mergeCell ref="AV5:AW5"/>
-    <mergeCell ref="AV6:AW6"/>
-    <mergeCell ref="P1:AK1"/>
   </mergeCells>
   <conditionalFormatting sqref="AS23:AS24 AS27:AS28 AS31:AS36">
     <cfRule type="containsText" dxfId="3" priority="5" stopIfTrue="1" operator="containsText" text="Aprovado">
@@ -11454,7 +11489,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU71">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AU71" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -11468,43 +11503,43 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>'Multi Seleção'!$E$23:$E$31</xm:f>
           </x14:formula1>
           <xm:sqref>AV10:AW10</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>'Multi Seleção'!$E$3:$E$17</xm:f>
           </x14:formula1>
           <xm:sqref>AY16</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>'Multi Seleção'!$H$3:$H$12</xm:f>
           </x14:formula1>
           <xm:sqref>AV48:AW48</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
-            <xm:f>'[1]Multi Seleção'!#REF!</xm:f>
+            <xm:f>'\\servdados\arquivos preciso\SGQ2\Registros\Certificados\Certificados 2015\01 Janeiro\Cheyza\01 Certificados a imprimir\[Doce Vida-150105106-Manometro C.xlsx]Multi Seleção'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>AV47:AW47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
           <x14:formula1>
             <xm:f>'Multi Seleção'!$F$3:$F$4</xm:f>
           </x14:formula1>
           <xm:sqref>AV39:AZ39</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000006000000}">
           <x14:formula1>
             <xm:f>'Multi Seleção'!$D$3:$D$12</xm:f>
           </x14:formula1>
           <xm:sqref>AV9:AW9</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000007000000}">
           <x14:formula1>
             <xm:f>'Multi Seleção'!$K$3:$K$104</xm:f>
           </x14:formula1>
@@ -11517,10 +11552,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:DB179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -11713,10 +11748,10 @@
       <c r="H2" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="I2" s="284" t="s">
+      <c r="I2" s="322" t="s">
         <v>123</v>
       </c>
-      <c r="J2" s="284"/>
+      <c r="J2" s="322"/>
       <c r="K2" s="113" t="s">
         <v>124</v>
       </c>
@@ -31889,6 +31924,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="AA1:AE1"/>
+    <mergeCell ref="AF1:AJ1"/>
     <mergeCell ref="AK1:AO1"/>
     <mergeCell ref="CX1:DB1"/>
     <mergeCell ref="CN1:CR1"/>
@@ -31905,15 +31945,10 @@
     <mergeCell ref="BE1:BI1"/>
     <mergeCell ref="BJ1:BN1"/>
     <mergeCell ref="BO1:BS1"/>
-    <mergeCell ref="L1:P1"/>
-    <mergeCell ref="Q1:U1"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="AA1:AE1"/>
-    <mergeCell ref="AF1:AJ1"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="K4 K20 K6:K17"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7 A4">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="K4 K20 K6:K17" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7 A4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>$B$3:$B$179</formula1>
     </dataValidation>
   </dataValidations>
@@ -31923,7 +31958,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
